--- a/capiq_data/in_process_data/IQ339447.xlsx
+++ b/capiq_data/in_process_data/IQ339447.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC590220-D583-4D73-B20F-FACEB26DD388}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C01EC0-A16F-4CEB-84B2-574259E1A0BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"d090a691-47f2-4af0-934b-bce2fd74c80b"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"6db0c84b-53f0-4ed6-92b1-8ad0bd8c7ec2"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40537</v>
+        <v>36890</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>92.995000000000005</v>
+        <v>12.731999999999999</v>
       </c>
       <c r="D2">
-        <v>2023.568</v>
+        <v>655.63199999999995</v>
       </c>
       <c r="E2">
-        <v>885.78399999999999</v>
+        <v>371.66800000000001</v>
       </c>
       <c r="F2">
-        <v>574.74300000000005</v>
+        <v>178.01900000000001</v>
       </c>
       <c r="G2">
-        <v>2169.3020000000001</v>
+        <v>788.404</v>
       </c>
       <c r="H2">
-        <v>4547.4709999999995</v>
+        <v>1231.068</v>
       </c>
       <c r="I2">
-        <v>590.029</v>
+        <v>216.535</v>
       </c>
       <c r="J2">
-        <v>395.30900000000003</v>
+        <v>266.22399999999999</v>
       </c>
       <c r="K2">
-        <v>41.508000000000003</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1168.087</v>
+        <v>364.85700000000003</v>
       </c>
       <c r="O2">
-        <v>1830.374</v>
+        <v>644.01199999999994</v>
       </c>
       <c r="P2">
-        <v>441.30399999999997</v>
+        <v>276.69299999999998</v>
       </c>
       <c r="Q2">
-        <v>-53.381999999999998</v>
+        <v>21.12</v>
       </c>
       <c r="R2">
-        <v>40537</v>
+        <v>36890</v>
       </c>
       <c r="S2">
-        <v>13500</v>
+        <v>6250</v>
       </c>
       <c r="T2">
-        <v>2717.0970000000002</v>
+        <v>587.05600000000004</v>
       </c>
       <c r="U2">
-        <v>150.34800000000001</v>
+        <v>58.362000000000002</v>
       </c>
       <c r="V2">
-        <v>218.655</v>
+        <v>67.888999999999996</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-207.01599999999999</v>
+        <v>-28.988</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-48.304000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>92.995000000000005</v>
+        <v>12.731999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40628</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>76.495000000000005</v>
+        <v>14.132</v>
       </c>
       <c r="D3">
-        <v>1947.761</v>
+        <v>593.89499999999998</v>
       </c>
       <c r="E3">
-        <v>934.952</v>
+        <v>358.95100000000002</v>
       </c>
       <c r="F3">
-        <v>565.822</v>
+        <v>159.357</v>
       </c>
       <c r="G3">
-        <v>2261.511</v>
+        <v>743.87300000000005</v>
       </c>
       <c r="H3">
-        <v>4794.9939999999997</v>
+        <v>1181.175</v>
       </c>
       <c r="I3">
-        <v>579.47400000000005</v>
+        <v>176.744</v>
       </c>
       <c r="J3">
-        <v>407.46199999999999</v>
+        <v>253.87</v>
       </c>
       <c r="K3">
-        <v>97.194000000000003</v>
+        <v>7.8310000000000004</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-1.526</v>
+        <v>-13.551</v>
       </c>
       <c r="N3">
-        <v>1234.203</v>
+        <v>311.601</v>
       </c>
       <c r="O3">
-        <v>1920.7339999999999</v>
+        <v>576.87599999999998</v>
       </c>
       <c r="P3">
-        <v>513.01300000000003</v>
+        <v>266.63099999999997</v>
       </c>
       <c r="Q3">
-        <v>-33.636000000000003</v>
+        <v>-20.25</v>
       </c>
       <c r="R3">
-        <v>40628</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2874.26</v>
+        <v>604.29899999999998</v>
       </c>
       <c r="U3">
-        <v>116.712</v>
+        <v>38.112000000000002</v>
       </c>
       <c r="V3">
-        <v>48.473999999999997</v>
+        <v>-12.090999999999999</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>53.128999999999998</v>
+        <v>-2.2440000000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-131.51400000000001</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>76.495000000000005</v>
+        <v>14.132</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40719</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>94.474999999999994</v>
+        <v>20.91</v>
       </c>
       <c r="D4">
-        <v>2130.64</v>
+        <v>606.28499999999997</v>
       </c>
       <c r="E4">
-        <v>963.07299999999998</v>
+        <v>366.31599999999997</v>
       </c>
       <c r="F4">
-        <v>612.22400000000005</v>
+        <v>166.892</v>
       </c>
       <c r="G4">
-        <v>2349.0100000000002</v>
+        <v>768.83600000000001</v>
       </c>
       <c r="H4">
-        <v>4883.759</v>
+        <v>1201.787</v>
       </c>
       <c r="I4">
-        <v>605.78499999999997</v>
+        <v>169.62899999999999</v>
       </c>
       <c r="J4">
-        <v>372.92399999999998</v>
+        <v>250.79900000000001</v>
       </c>
       <c r="K4">
-        <v>49.235999999999997</v>
+        <v>9.1170000000000009</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1236.9449999999999</v>
+        <v>310.97199999999998</v>
       </c>
       <c r="O4">
-        <v>1884.7750000000001</v>
+        <v>575.22</v>
       </c>
       <c r="P4">
-        <v>443.346</v>
+        <v>264.512</v>
       </c>
       <c r="Q4">
-        <v>45.076999999999998</v>
+        <v>37.734999999999999</v>
       </c>
       <c r="R4">
-        <v>40719</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2998.9839999999999</v>
+        <v>626.56700000000001</v>
       </c>
       <c r="U4">
-        <v>161.78899999999999</v>
+        <v>75.846999999999994</v>
       </c>
       <c r="V4">
-        <v>137.99799999999999</v>
+        <v>41.37</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-76.301000000000002</v>
+        <v>3.0329999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-9.9719999999999995</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>94.474999999999994</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40810</v>
+        <v>37163</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>91.960999999999999</v>
+        <v>25.195</v>
       </c>
       <c r="D5">
-        <v>2111.6930000000002</v>
+        <v>659.774</v>
       </c>
       <c r="E5">
-        <v>983.06</v>
+        <v>416.10599999999999</v>
       </c>
       <c r="F5">
-        <v>587.41999999999996</v>
+        <v>178.85599999999999</v>
       </c>
       <c r="G5">
-        <v>2317.1320000000001</v>
+        <v>841.77800000000002</v>
       </c>
       <c r="H5">
-        <v>4798.2960000000003</v>
+        <v>1281.4359999999999</v>
       </c>
       <c r="I5">
-        <v>595.476</v>
+        <v>200.24299999999999</v>
       </c>
       <c r="J5">
-        <v>371.86399999999998</v>
+        <v>250.65100000000001</v>
       </c>
       <c r="K5">
-        <v>40.015000000000001</v>
+        <v>8.8780000000000001</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1201.3520000000001</v>
+        <v>357.75</v>
       </c>
       <c r="O5">
-        <v>1840.674</v>
+        <v>620.87800000000004</v>
       </c>
       <c r="P5">
-        <v>431.95499999999998</v>
+        <v>267.988</v>
       </c>
       <c r="Q5">
-        <v>-54.917000000000002</v>
+        <v>32.006999999999998</v>
       </c>
       <c r="R5">
-        <v>40810</v>
+        <v>37163</v>
       </c>
       <c r="S5">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2957.6219999999998</v>
+        <v>660.55799999999999</v>
       </c>
       <c r="U5">
-        <v>106.872</v>
+        <v>107.854</v>
       </c>
       <c r="V5">
-        <v>90.326999999999998</v>
+        <v>49.844000000000001</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-120.798</v>
+        <v>3.5590000000000002</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>91.960999999999999</v>
+        <v>25.195</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>104.73</v>
+        <v>27.135999999999999</v>
       </c>
       <c r="D6">
-        <v>2340.1480000000001</v>
+        <v>698.28899999999999</v>
       </c>
       <c r="E6">
-        <v>888.24800000000005</v>
+        <v>363.7</v>
       </c>
       <c r="F6">
-        <v>652.58900000000006</v>
+        <v>194.21899999999999</v>
       </c>
       <c r="G6">
-        <v>2272.5079999999998</v>
+        <v>926.971</v>
       </c>
       <c r="H6">
-        <v>4740.1440000000002</v>
+        <v>1385.4280000000001</v>
       </c>
       <c r="I6">
-        <v>621.46799999999996</v>
+        <v>263.19</v>
       </c>
       <c r="J6">
-        <v>363.524</v>
+        <v>242.16900000000001</v>
       </c>
       <c r="K6">
-        <v>55.014000000000003</v>
+        <v>4.0250000000000004</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1271.6400000000001</v>
+        <v>437.06200000000001</v>
       </c>
       <c r="O6">
-        <v>1904.471</v>
+        <v>698.18499999999995</v>
       </c>
       <c r="P6">
-        <v>441.35700000000003</v>
+        <v>261.41699999999997</v>
       </c>
       <c r="Q6">
-        <v>40.411999999999999</v>
+        <v>85.513000000000005</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="S6">
-        <v>15000</v>
+        <v>6500</v>
       </c>
       <c r="T6">
-        <v>2835.6729999999998</v>
+        <v>687.24300000000005</v>
       </c>
       <c r="U6">
-        <v>147.28399999999999</v>
+        <v>193.36699999999999</v>
       </c>
       <c r="V6">
-        <v>277.82600000000002</v>
+        <v>111.788</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-213.244</v>
+        <v>-3.9769999999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-5.617</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>104.73</v>
+        <v>27.135999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>80.751999999999995</v>
+        <v>19.73</v>
       </c>
       <c r="D7">
-        <v>2099.0189999999998</v>
+        <v>647.09299999999996</v>
       </c>
       <c r="E7">
-        <v>957.47</v>
+        <v>356.45299999999997</v>
       </c>
       <c r="F7">
-        <v>610.57899999999995</v>
+        <v>178.39</v>
       </c>
       <c r="G7">
-        <v>2307.0100000000002</v>
+        <v>827.40899999999999</v>
       </c>
       <c r="H7">
-        <v>4759.6329999999998</v>
+        <v>1309.519</v>
       </c>
       <c r="I7">
-        <v>571.34100000000001</v>
+        <v>205.71700000000001</v>
       </c>
       <c r="J7">
-        <v>453.05799999999999</v>
+        <v>241.96799999999999</v>
       </c>
       <c r="K7">
-        <v>5.0039999999999996</v>
+        <v>4.0309999999999997</v>
       </c>
       <c r="L7">
-        <v>-50.015999999999998</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-10.65</v>
+        <v>-12.407</v>
       </c>
       <c r="N7">
-        <v>1139.136</v>
+        <v>334.41300000000001</v>
       </c>
       <c r="O7">
-        <v>1863.1189999999999</v>
+        <v>594.55499999999995</v>
       </c>
       <c r="P7">
-        <v>481.09</v>
+        <v>249.21100000000001</v>
       </c>
       <c r="Q7">
-        <v>-45.470999999999997</v>
+        <v>-99.945999999999998</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="S7">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>2896.5140000000001</v>
+        <v>714.96400000000006</v>
       </c>
       <c r="U7">
-        <v>101.813</v>
+        <v>93.421000000000006</v>
       </c>
       <c r="V7">
-        <v>-48.604999999999997</v>
+        <v>-38.786000000000001</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>30.908999999999999</v>
+        <v>-5.1660000000000004</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-17.829999999999998</v>
+        <v>-10.455</v>
       </c>
       <c r="AA7">
-        <v>80.751999999999995</v>
+        <v>19.73</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>98.085999999999999</v>
+        <v>28.065999999999999</v>
       </c>
       <c r="D8">
-        <v>2201.4520000000002</v>
+        <v>671.43200000000002</v>
       </c>
       <c r="E8">
-        <v>972.29200000000003</v>
+        <v>362.74400000000003</v>
       </c>
       <c r="F8">
-        <v>624.39499999999998</v>
+        <v>192.39599999999999</v>
       </c>
       <c r="G8">
-        <v>2331.1439999999998</v>
+        <v>910.149</v>
       </c>
       <c r="H8">
-        <v>4835.2560000000003</v>
+        <v>1410.1569999999999</v>
       </c>
       <c r="I8">
-        <v>619.93600000000004</v>
+        <v>204.959</v>
       </c>
       <c r="J8">
-        <v>434.41699999999997</v>
+        <v>242.99</v>
       </c>
       <c r="K8">
-        <v>83.453999999999994</v>
+        <v>3.9140000000000001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1283.454</v>
+        <v>362.72800000000001</v>
       </c>
       <c r="O8">
-        <v>1986.098</v>
+        <v>625.34</v>
       </c>
       <c r="P8">
-        <v>535</v>
+        <v>249.452</v>
       </c>
       <c r="Q8">
-        <v>-13.917</v>
+        <v>39.087000000000003</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="S8">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>2849.1579999999999</v>
+        <v>784.81700000000001</v>
       </c>
       <c r="U8">
-        <v>87.896000000000001</v>
+        <v>132.50800000000001</v>
       </c>
       <c r="V8">
-        <v>178.49799999999999</v>
+        <v>52.167000000000002</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-74.796000000000006</v>
+        <v>17.190999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-98.492999999999995</v>
+        <v>-10.183999999999999</v>
       </c>
       <c r="AA8">
-        <v>98.085999999999999</v>
+        <v>28.065999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>96.771000000000001</v>
+        <v>39.228000000000002</v>
       </c>
       <c r="D9">
-        <v>2231.058</v>
+        <v>759.07299999999998</v>
       </c>
       <c r="E9">
-        <v>1035.529</v>
+        <v>415.58499999999998</v>
       </c>
       <c r="F9">
-        <v>609.04399999999998</v>
+        <v>216.47200000000001</v>
       </c>
       <c r="G9">
-        <v>2512.1790000000001</v>
+        <v>1006.9589999999999</v>
       </c>
       <c r="H9">
-        <v>5111.5320000000002</v>
+        <v>1517.1320000000001</v>
       </c>
       <c r="I9">
-        <v>707.64099999999996</v>
+        <v>260.197</v>
       </c>
       <c r="J9">
-        <v>436.42599999999999</v>
+        <v>242.14</v>
       </c>
       <c r="K9">
-        <v>155.21899999999999</v>
+        <v>6.0810000000000004</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1448.9580000000001</v>
+        <v>426.64100000000002</v>
       </c>
       <c r="O9">
-        <v>2162.7629999999999</v>
+        <v>689.85799999999995</v>
       </c>
       <c r="P9">
-        <v>609.38400000000001</v>
+        <v>250.886</v>
       </c>
       <c r="Q9">
-        <v>1.44</v>
+        <v>16.791</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="S9">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>2948.7689999999998</v>
+        <v>827.274</v>
       </c>
       <c r="U9">
-        <v>89.335999999999999</v>
+        <v>149.29900000000001</v>
       </c>
       <c r="V9">
-        <v>78.545000000000002</v>
+        <v>52.268999999999998</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>14.592000000000001</v>
+        <v>5.3259999999999996</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-83.912999999999997</v>
+        <v>-29.654</v>
       </c>
       <c r="AA9">
-        <v>96.771000000000001</v>
+        <v>39.228000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>112.467</v>
+        <v>30.963000000000001</v>
       </c>
       <c r="D10">
-        <v>2408.4380000000001</v>
+        <v>747.40300000000002</v>
       </c>
       <c r="E10">
-        <v>1015.194</v>
+        <v>368.26299999999998</v>
       </c>
       <c r="F10">
-        <v>663.495</v>
+        <v>207.64599999999999</v>
       </c>
       <c r="G10">
-        <v>2704.377</v>
+        <v>1027.529</v>
       </c>
       <c r="H10">
-        <v>5333.9970000000003</v>
+        <v>1558.0519999999999</v>
       </c>
       <c r="I10">
-        <v>787.65800000000002</v>
+        <v>243.166</v>
       </c>
       <c r="J10">
-        <v>488.12099999999998</v>
+        <v>242.56100000000001</v>
       </c>
       <c r="K10">
-        <v>27.166</v>
+        <v>4.79</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1472.7090000000001</v>
+        <v>423.33</v>
       </c>
       <c r="O10">
-        <v>2282.9580000000001</v>
+        <v>690.08699999999999</v>
       </c>
       <c r="P10">
-        <v>533.279</v>
+        <v>250.01300000000001</v>
       </c>
       <c r="Q10">
-        <v>32.744</v>
+        <v>51.351999999999997</v>
       </c>
       <c r="R10">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="S10">
-        <v>15000</v>
+        <v>6900</v>
       </c>
       <c r="T10">
-        <v>3051.0390000000002</v>
+        <v>867.96500000000003</v>
       </c>
       <c r="U10">
-        <v>122.08</v>
+        <v>200.65100000000001</v>
       </c>
       <c r="V10">
-        <v>199.661</v>
+        <v>69.019000000000005</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-141.30600000000001</v>
+        <v>1.3320000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-10.776999999999999</v>
+        <v>-4.9180000000000001</v>
       </c>
       <c r="AA10">
-        <v>112.467</v>
+        <v>30.963000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>91.477999999999994</v>
+        <v>24.765999999999998</v>
       </c>
       <c r="D11">
-        <v>2293.511</v>
+        <v>737.99699999999996</v>
       </c>
       <c r="E11">
-        <v>1028.163</v>
+        <v>381.12799999999999</v>
       </c>
       <c r="F11">
-        <v>646.99099999999999</v>
+        <v>201.417</v>
       </c>
       <c r="G11">
-        <v>2585.415</v>
+        <v>1014.046</v>
       </c>
       <c r="H11">
-        <v>5205.6859999999997</v>
+        <v>1551.2819999999999</v>
       </c>
       <c r="I11">
-        <v>609.02800000000002</v>
+        <v>213.86799999999999</v>
       </c>
       <c r="J11">
-        <v>600.59900000000005</v>
+        <v>242.86799999999999</v>
       </c>
       <c r="K11">
-        <v>50.073</v>
+        <v>3.2130000000000001</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-232.905</v>
+        <v>-1.929</v>
       </c>
       <c r="N11">
-        <v>1242.569</v>
+        <v>382.92099999999999</v>
       </c>
       <c r="O11">
-        <v>2162.6489999999999</v>
+        <v>650.89800000000002</v>
       </c>
       <c r="P11">
-        <v>652.58000000000004</v>
+        <v>248.68100000000001</v>
       </c>
       <c r="Q11">
-        <v>-31.518000000000001</v>
+        <v>-13.656000000000001</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="S11">
-        <v>15500</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>3043.0369999999998</v>
+        <v>900.38400000000001</v>
       </c>
       <c r="U11">
-        <v>90.561999999999998</v>
+        <v>186.995</v>
       </c>
       <c r="V11">
-        <v>-38.046999999999997</v>
+        <v>-14.085000000000001</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>56.073</v>
+        <v>-3.7469999999999999</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-32.359000000000002</v>
+        <v>22.329000000000001</v>
       </c>
       <c r="AA11">
-        <v>91.477999999999994</v>
+        <v>24.765999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>108.43</v>
+        <v>32.854999999999997</v>
       </c>
       <c r="D12">
-        <v>2391.81</v>
+        <v>776.16600000000005</v>
       </c>
       <c r="E12">
-        <v>1039.914</v>
+        <v>418.47</v>
       </c>
       <c r="F12">
-        <v>669.85599999999999</v>
+        <v>220.529</v>
       </c>
       <c r="G12">
-        <v>2573.2660000000001</v>
+        <v>1000.679</v>
       </c>
       <c r="H12">
-        <v>5164.5060000000003</v>
+        <v>1613.796</v>
       </c>
       <c r="I12">
-        <v>682.60400000000004</v>
+        <v>228.46700000000001</v>
       </c>
       <c r="J12">
-        <v>446.709</v>
+        <v>247.179</v>
       </c>
       <c r="K12">
-        <v>15.587999999999999</v>
+        <v>4.7640000000000002</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1314.335</v>
+        <v>423.79700000000003</v>
       </c>
       <c r="O12">
-        <v>2081.0439999999999</v>
+        <v>697.31500000000005</v>
       </c>
       <c r="P12">
-        <v>468.19099999999997</v>
+        <v>256.75900000000001</v>
       </c>
       <c r="Q12">
-        <v>-11.723000000000001</v>
+        <v>-65.834000000000003</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="S12">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>3083.462</v>
+        <v>916.48099999999999</v>
       </c>
       <c r="U12">
-        <v>78.838999999999999</v>
+        <v>121.161</v>
       </c>
       <c r="V12">
-        <v>274.798</v>
+        <v>55.116</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-268.74400000000003</v>
+        <v>-37.063000000000002</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-1.349</v>
+        <v>-14.994</v>
       </c>
       <c r="AA12">
-        <v>108.43</v>
+        <v>32.854999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>107.378</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>2348.9560000000001</v>
+        <v>892.71799999999996</v>
       </c>
       <c r="E13">
-        <v>1103.2719999999999</v>
+        <v>498.01600000000002</v>
       </c>
       <c r="F13">
-        <v>639.64700000000005</v>
+        <v>251.5</v>
       </c>
       <c r="G13">
-        <v>2635.42</v>
+        <v>1087.7629999999999</v>
       </c>
       <c r="H13">
-        <v>5278.0889999999999</v>
+        <v>1696.9870000000001</v>
       </c>
       <c r="I13">
-        <v>723.90499999999997</v>
+        <v>246.71</v>
       </c>
       <c r="J13">
-        <v>311.45800000000003</v>
+        <v>245.38900000000001</v>
       </c>
       <c r="K13">
-        <v>15.750999999999999</v>
+        <v>6.4749999999999996</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1446.4449999999999</v>
+        <v>460.48200000000003</v>
       </c>
       <c r="O13">
-        <v>2092.1030000000001</v>
+        <v>734.82600000000002</v>
       </c>
       <c r="P13">
-        <v>407.79700000000003</v>
+        <v>256.221</v>
       </c>
       <c r="Q13">
-        <v>-8.9239999999999995</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="S13">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>3185.9859999999999</v>
+        <v>962.16099999999994</v>
       </c>
       <c r="U13">
-        <v>69.915000000000006</v>
+        <v>92.856999999999999</v>
       </c>
       <c r="V13">
-        <v>152.79599999999999</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-136.56899999999999</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-14.17</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>107.378</v>
+        <v>44.347000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41636</v>
+        <v>37982</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>124.268</v>
+        <v>35.542000000000002</v>
       </c>
       <c r="D14">
-        <v>2526.37</v>
+        <v>946.92399999999998</v>
       </c>
       <c r="E14">
-        <v>1055.2159999999999</v>
+        <v>467.08499999999998</v>
       </c>
       <c r="F14">
-        <v>699.52</v>
+        <v>253.74799999999999</v>
       </c>
       <c r="G14">
-        <v>2834.665</v>
+        <v>1156.4839999999999</v>
       </c>
       <c r="H14">
-        <v>5624.6360000000004</v>
+        <v>1819.37</v>
       </c>
       <c r="I14">
-        <v>824.495</v>
+        <v>278.16300000000001</v>
       </c>
       <c r="J14">
-        <v>450.233</v>
+        <v>247.1</v>
       </c>
       <c r="K14">
-        <v>29.507999999999999</v>
+        <v>6.0590000000000002</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1550.663</v>
+        <v>519.18799999999999</v>
       </c>
       <c r="O14">
-        <v>2339.096</v>
+        <v>803.72</v>
       </c>
       <c r="P14">
-        <v>485.18200000000002</v>
+        <v>256.41199999999998</v>
       </c>
       <c r="Q14">
-        <v>118.70099999999999</v>
+        <v>64.494</v>
       </c>
       <c r="R14">
-        <v>41636</v>
+        <v>37982</v>
       </c>
       <c r="S14">
-        <v>16000</v>
+        <v>7900</v>
       </c>
       <c r="T14">
-        <v>3285.54</v>
+        <v>1015.65</v>
       </c>
       <c r="U14">
-        <v>188.61600000000001</v>
+        <v>157.351</v>
       </c>
       <c r="V14">
-        <v>274.62799999999999</v>
+        <v>110.752</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>13.266</v>
+        <v>-2.4039999999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-147.84899999999999</v>
+        <v>20.887</v>
       </c>
       <c r="AA14">
-        <v>124.268</v>
+        <v>35.542000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41727</v>
+        <v>38073</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>102.099</v>
+        <v>28.393000000000001</v>
       </c>
       <c r="D15">
-        <v>2430.1590000000001</v>
+        <v>886.63099999999997</v>
       </c>
       <c r="E15">
-        <v>1116.502</v>
+        <v>472.92700000000002</v>
       </c>
       <c r="F15">
-        <v>696.71299999999997</v>
+        <v>230.827</v>
       </c>
       <c r="G15">
-        <v>2876.9059999999999</v>
+        <v>1086.03</v>
       </c>
       <c r="H15">
-        <v>5880.11</v>
+        <v>1832.588</v>
       </c>
       <c r="I15">
-        <v>685.91499999999996</v>
+        <v>258.70400000000001</v>
       </c>
       <c r="J15">
-        <v>541.68700000000001</v>
+        <v>273.327</v>
       </c>
       <c r="K15">
-        <v>144.042</v>
+        <v>10.542</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.39600000000000002</v>
+        <v>-0.26200000000000001</v>
       </c>
       <c r="N15">
-        <v>1613.261</v>
+        <v>479.19799999999998</v>
       </c>
       <c r="O15">
-        <v>2578.3519999999999</v>
+        <v>791.10699999999997</v>
       </c>
       <c r="P15">
-        <v>791.71299999999997</v>
+        <v>287.12799999999999</v>
       </c>
       <c r="Q15">
-        <v>-59.500999999999998</v>
+        <v>-84.265000000000001</v>
       </c>
       <c r="R15">
-        <v>41727</v>
+        <v>38073</v>
       </c>
       <c r="S15">
-        <v>17000</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>3301.7579999999998</v>
+        <v>1041.481</v>
       </c>
       <c r="U15">
-        <v>129.11500000000001</v>
+        <v>73.085999999999999</v>
       </c>
       <c r="V15">
-        <v>-55.249000000000002</v>
+        <v>-13.441000000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>161.697</v>
+        <v>25.437999999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-144.679</v>
+        <v>14.472</v>
       </c>
       <c r="AA15">
-        <v>102.099</v>
+        <v>28.393000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41818</v>
+        <v>38164</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>116.236</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2615.4059999999999</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1188.143</v>
+        <v>518.80799999999999</v>
       </c>
       <c r="F16">
-        <v>728.47199999999998</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>2912.0030000000002</v>
+        <v>1246.674</v>
       </c>
       <c r="H16">
-        <v>5991.7539999999999</v>
+        <v>2200.2730000000001</v>
       </c>
       <c r="I16">
-        <v>755.99900000000002</v>
+        <v>287.714</v>
       </c>
       <c r="J16">
-        <v>665.90899999999999</v>
+        <v>420.87700000000001</v>
       </c>
       <c r="K16">
-        <v>83.671000000000006</v>
+        <v>85.033000000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1543.9010000000001</v>
+        <v>649.13599999999997</v>
       </c>
       <c r="O16">
-        <v>2640.2950000000001</v>
+        <v>1138.4559999999999</v>
       </c>
       <c r="P16">
-        <v>755.88199999999995</v>
+        <v>509.024</v>
       </c>
       <c r="Q16">
-        <v>-39.417000000000002</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>41818</v>
+        <v>38164</v>
       </c>
       <c r="S16">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="T16">
-        <v>3351.4589999999998</v>
+        <v>1061.817</v>
       </c>
       <c r="U16">
-        <v>89.697999999999993</v>
+        <v>106.337</v>
       </c>
       <c r="V16">
-        <v>199.232</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-140.36500000000001</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-78.177999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>116.236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41909</v>
+        <v>38255</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>114.776</v>
+        <v>31.504000000000001</v>
       </c>
       <c r="D17">
-        <v>2623.7289999999998</v>
+        <v>993.1</v>
       </c>
       <c r="E17">
-        <v>1179.171</v>
+        <v>542.52300000000002</v>
       </c>
       <c r="F17">
-        <v>721.66600000000005</v>
+        <v>269.24</v>
       </c>
       <c r="G17">
-        <v>2928.2370000000001</v>
+        <v>1260.2529999999999</v>
       </c>
       <c r="H17">
-        <v>6130.6310000000003</v>
+        <v>2212.2710000000002</v>
       </c>
       <c r="I17">
-        <v>822.06799999999998</v>
+        <v>262.08300000000003</v>
       </c>
       <c r="J17">
-        <v>630.80600000000004</v>
+        <v>522.76700000000005</v>
       </c>
       <c r="K17">
-        <v>188.815</v>
+        <v>6.8239999999999998</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1705.8340000000001</v>
+        <v>530.05700000000002</v>
       </c>
       <c r="O17">
-        <v>2760.06</v>
+        <v>1141.5899999999999</v>
       </c>
       <c r="P17">
-        <v>825.40300000000002</v>
+        <v>533.48699999999997</v>
       </c>
       <c r="Q17">
-        <v>-13.156000000000001</v>
+        <v>-33.366</v>
       </c>
       <c r="R17">
-        <v>41909</v>
+        <v>38255</v>
       </c>
       <c r="S17">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="T17">
-        <v>3370.5709999999999</v>
+        <v>1070.681</v>
       </c>
       <c r="U17">
-        <v>76.542000000000002</v>
+        <v>72.971000000000004</v>
       </c>
       <c r="V17">
-        <v>174.50200000000001</v>
+        <v>-0.14699999999999999</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-9.8420000000000005</v>
+        <v>-48.832999999999998</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-139.25299999999999</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>114.776</v>
+        <v>31.504000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42000</v>
+        <v>38346</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>132.96600000000001</v>
+        <v>29.55</v>
       </c>
       <c r="D18">
-        <v>2702.096</v>
+        <v>1156.1220000000001</v>
       </c>
       <c r="E18">
-        <v>1127.5170000000001</v>
+        <v>554.66600000000005</v>
       </c>
       <c r="F18">
-        <v>764.46400000000006</v>
+        <v>314.33</v>
       </c>
       <c r="G18">
-        <v>2913.1660000000002</v>
+        <v>1430.7429999999999</v>
       </c>
       <c r="H18">
-        <v>6138.8069999999998</v>
+        <v>2433.67</v>
       </c>
       <c r="I18">
-        <v>860.99599999999998</v>
+        <v>367.21300000000002</v>
       </c>
       <c r="J18">
-        <v>542.77599999999995</v>
+        <v>525.68200000000002</v>
       </c>
       <c r="K18">
-        <v>182.899</v>
+        <v>5.9690000000000003</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1780.1110000000001</v>
+        <v>693.899</v>
       </c>
       <c r="O18">
-        <v>2757.835</v>
+        <v>1315.1790000000001</v>
       </c>
       <c r="P18">
-        <v>731.49</v>
+        <v>535.55700000000002</v>
       </c>
       <c r="Q18">
-        <v>12.932</v>
+        <v>113.65</v>
       </c>
       <c r="R18">
-        <v>42000</v>
+        <v>38346</v>
       </c>
       <c r="S18">
-        <v>17500</v>
+        <v>9600</v>
       </c>
       <c r="T18">
-        <v>3380.9720000000002</v>
+        <v>1118.491</v>
       </c>
       <c r="U18">
-        <v>89.474000000000004</v>
+        <v>186.62100000000001</v>
       </c>
       <c r="V18">
-        <v>274.01900000000001</v>
+        <v>132.53</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-166.137</v>
+        <v>-11.411</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-58.923000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>132.96600000000001</v>
+        <v>29.55</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42091</v>
+        <v>38437</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>103.447</v>
+        <v>30.873000000000001</v>
       </c>
       <c r="D19">
-        <v>2463.6460000000002</v>
+        <v>1062.9970000000001</v>
       </c>
       <c r="E19">
-        <v>1099.2729999999999</v>
+        <v>550.26199999999994</v>
       </c>
       <c r="F19">
-        <v>713.39499999999998</v>
+        <v>301.39400000000001</v>
       </c>
       <c r="G19">
-        <v>2802.2539999999999</v>
+        <v>1328.6469999999999</v>
       </c>
       <c r="H19">
-        <v>5939.2640000000001</v>
+        <v>2340.1419999999998</v>
       </c>
       <c r="I19">
-        <v>716.97500000000002</v>
+        <v>304.48700000000002</v>
       </c>
       <c r="J19">
-        <v>653.71799999999996</v>
+        <v>517.09299999999996</v>
       </c>
       <c r="K19">
-        <v>163.06700000000001</v>
+        <v>6.0659999999999998</v>
       </c>
       <c r="L19">
-        <v>-19.885999999999999</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>-0.73599999999999999</v>
+        <v>-0.69599999999999995</v>
       </c>
       <c r="N19">
-        <v>1546.8389999999999</v>
+        <v>572.06600000000003</v>
       </c>
       <c r="O19">
-        <v>2630.248</v>
+        <v>1198.653</v>
       </c>
       <c r="P19">
-        <v>831.37099999999998</v>
+        <v>526.94500000000005</v>
       </c>
       <c r="Q19">
-        <v>-30.271999999999998</v>
+        <v>-71.88</v>
       </c>
       <c r="R19">
-        <v>42091</v>
+        <v>38437</v>
       </c>
       <c r="S19">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="T19">
-        <v>3309.0160000000001</v>
+        <v>1141.489</v>
       </c>
       <c r="U19">
-        <v>59.201999999999998</v>
+        <v>114.741</v>
       </c>
       <c r="V19">
-        <v>-26.654</v>
+        <v>-18.177</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>35.774000000000001</v>
+        <v>-3.3980000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-13.637</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>103.447</v>
+        <v>30.873000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42182</v>
+        <v>38528</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>117.928</v>
+        <v>36.957000000000001</v>
       </c>
       <c r="D20">
-        <v>2629.32</v>
+        <v>1104.4280000000001</v>
       </c>
       <c r="E20">
-        <v>1164.3800000000001</v>
+        <v>580.69899999999996</v>
       </c>
       <c r="F20">
-        <v>750.678</v>
+        <v>321.33600000000001</v>
       </c>
       <c r="G20">
-        <v>2905.337</v>
+        <v>1419.864</v>
       </c>
       <c r="H20">
-        <v>6105.6260000000002</v>
+        <v>2439.8879999999999</v>
       </c>
       <c r="I20">
-        <v>778.74800000000005</v>
+        <v>322.25599999999997</v>
       </c>
       <c r="J20">
-        <v>588.52300000000002</v>
+        <v>518.95399999999995</v>
       </c>
       <c r="K20">
-        <v>132.428</v>
+        <v>4.3019999999999996</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1636.742</v>
+        <v>623.471</v>
       </c>
       <c r="O20">
-        <v>2671.9380000000001</v>
+        <v>1263.1369999999999</v>
       </c>
       <c r="P20">
-        <v>735.66700000000003</v>
+        <v>531.61199999999997</v>
       </c>
       <c r="Q20">
-        <v>-12.134</v>
+        <v>72.367000000000004</v>
       </c>
       <c r="R20">
-        <v>42182</v>
+        <v>38528</v>
       </c>
       <c r="S20">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="T20">
-        <v>3433.6880000000001</v>
+        <v>1176.751</v>
       </c>
       <c r="U20">
-        <v>47.067999999999998</v>
+        <v>187.108</v>
       </c>
       <c r="V20">
-        <v>207.756</v>
+        <v>85.334000000000003</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-152.511</v>
+        <v>1.71</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-47.658999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>117.928</v>
+        <v>36.957000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42273</v>
+        <v>38619</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>127.735</v>
+        <v>23.300999999999998</v>
       </c>
       <c r="D21">
-        <v>2685.835</v>
+        <v>1125.3630000000001</v>
       </c>
       <c r="E21">
-        <v>1223.636</v>
+        <v>612.04</v>
       </c>
       <c r="F21">
-        <v>748.90800000000002</v>
+        <v>316.73099999999999</v>
       </c>
       <c r="G21">
-        <v>3120.1729999999998</v>
+        <v>1482.5530000000001</v>
       </c>
       <c r="H21">
-        <v>6371.558</v>
+        <v>2481.6219999999998</v>
       </c>
       <c r="I21">
-        <v>873.78499999999997</v>
+        <v>343.65300000000002</v>
       </c>
       <c r="J21">
-        <v>597.10599999999999</v>
+        <v>513.59199999999998</v>
       </c>
       <c r="K21">
-        <v>186.886</v>
+        <v>2.7639999999999998</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1797.2809999999999</v>
+        <v>635.00199999999995</v>
       </c>
       <c r="O21">
-        <v>2845.0210000000002</v>
+        <v>1270.4169999999999</v>
       </c>
       <c r="P21">
-        <v>798.44799999999998</v>
+        <v>524.40300000000002</v>
       </c>
       <c r="Q21">
-        <v>13.413</v>
+        <v>16.649000000000001</v>
       </c>
       <c r="R21">
-        <v>42273</v>
+        <v>38619</v>
       </c>
       <c r="S21">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="T21">
-        <v>3526.5369999999998</v>
+        <v>1211.2049999999999</v>
       </c>
       <c r="U21">
-        <v>60.481000000000002</v>
+        <v>220.077</v>
       </c>
       <c r="V21">
-        <v>107.428</v>
+        <v>38.890999999999998</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>18.73</v>
+        <v>-5.2469999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-80.762</v>
+        <v>-24.745000000000001</v>
       </c>
       <c r="AA21">
-        <v>127.735</v>
+        <v>23.300999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42364</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>129.94800000000001</v>
+        <v>48.628</v>
       </c>
       <c r="D22">
-        <v>2850.9180000000001</v>
+        <v>1343.1410000000001</v>
       </c>
       <c r="E22">
-        <v>1229.816</v>
+        <v>582.61699999999996</v>
       </c>
       <c r="F22">
-        <v>799.27800000000002</v>
+        <v>377.47500000000002</v>
       </c>
       <c r="G22">
-        <v>3231.1</v>
+        <v>1584.4090000000001</v>
       </c>
       <c r="H22">
-        <v>6504.74</v>
+        <v>2583.12</v>
       </c>
       <c r="I22">
-        <v>1005.798</v>
+        <v>371.392</v>
       </c>
       <c r="J22">
-        <v>463.75200000000001</v>
+        <v>489.52</v>
       </c>
       <c r="K22">
-        <v>328.63099999999997</v>
+        <v>2.093</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2146.9969999999998</v>
+        <v>724.11400000000003</v>
       </c>
       <c r="O22">
-        <v>3075.732</v>
+        <v>1321.6130000000001</v>
       </c>
       <c r="P22">
-        <v>809.71400000000006</v>
+        <v>524.62599999999998</v>
       </c>
       <c r="Q22">
-        <v>11.605</v>
+        <v>6.9260000000000002</v>
       </c>
       <c r="R22">
-        <v>42364</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="T22">
-        <v>3429.0079999999998</v>
+        <v>1261.5070000000001</v>
       </c>
       <c r="U22">
-        <v>72.085999999999999</v>
+        <v>210.68299999999999</v>
       </c>
       <c r="V22">
-        <v>298.31099999999998</v>
+        <v>148.72800000000001</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-221.364</v>
+        <v>-21.565999999999999</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-29.783000000000001</v>
+        <v>-99.266000000000005</v>
       </c>
       <c r="AA22">
-        <v>129.94800000000001</v>
+        <v>48.628</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42455</v>
+        <v>38808</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>113.752</v>
+        <v>16.259</v>
       </c>
       <c r="D23">
-        <v>2712.9560000000001</v>
+        <v>1133.585</v>
       </c>
       <c r="E23">
-        <v>1274.95</v>
+        <v>546.41399999999999</v>
       </c>
       <c r="F23">
-        <v>777.84199999999998</v>
+        <v>335.52100000000002</v>
       </c>
       <c r="G23">
-        <v>3271.0030000000002</v>
+        <v>1493.5060000000001</v>
       </c>
       <c r="H23">
-        <v>6600.57</v>
+        <v>2566.944</v>
       </c>
       <c r="I23">
-        <v>809.12400000000002</v>
+        <v>340.65100000000001</v>
       </c>
       <c r="J23">
-        <v>666.28300000000002</v>
+        <v>488.214</v>
       </c>
       <c r="K23">
-        <v>424.03</v>
+        <v>3.38</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-7.5540000000000003</v>
+        <v>-2.645</v>
       </c>
       <c r="N23">
-        <v>1987.5039999999999</v>
+        <v>649.07500000000005</v>
       </c>
       <c r="O23">
-        <v>3154.3389999999999</v>
+        <v>1253.809</v>
       </c>
       <c r="P23">
-        <v>1107.646</v>
+        <v>522.31100000000004</v>
       </c>
       <c r="Q23">
-        <v>-0.47199999999999998</v>
+        <v>-71.938000000000002</v>
       </c>
       <c r="R23">
-        <v>42455</v>
+        <v>38808</v>
       </c>
       <c r="S23">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="T23">
-        <v>3446.2310000000002</v>
+        <v>1313.135</v>
       </c>
       <c r="U23">
-        <v>71.614000000000004</v>
+        <v>159.88999999999999</v>
       </c>
       <c r="V23">
-        <v>-77.798000000000002</v>
+        <v>-38</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>145.37899999999999</v>
+        <v>22.425000000000001</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-52.561999999999998</v>
+        <v>22.69</v>
       </c>
       <c r="AA23">
-        <v>113.752</v>
+        <v>16.259</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42546</v>
+        <v>38899</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>120.09699999999999</v>
+        <v>45.218000000000004</v>
       </c>
       <c r="D24">
-        <v>2872.63</v>
+        <v>1192.989</v>
       </c>
       <c r="E24">
-        <v>1296.2249999999999</v>
+        <v>579.76599999999996</v>
       </c>
       <c r="F24">
-        <v>801.46900000000005</v>
+        <v>357.245</v>
       </c>
       <c r="G24">
-        <v>3277.5909999999999</v>
+        <v>1522.74</v>
       </c>
       <c r="H24">
-        <v>6633.5959999999995</v>
+        <v>2650.0529999999999</v>
       </c>
       <c r="I24">
-        <v>881.66700000000003</v>
+        <v>351.56599999999997</v>
       </c>
       <c r="J24">
-        <v>700.05200000000002</v>
+        <v>486.01400000000001</v>
       </c>
       <c r="K24">
-        <v>237.809</v>
+        <v>2.262</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1910.912</v>
+        <v>672.08399999999995</v>
       </c>
       <c r="O24">
-        <v>3109.29</v>
+        <v>1277.952</v>
       </c>
       <c r="P24">
-        <v>955.05</v>
+        <v>519.45799999999997</v>
       </c>
       <c r="Q24">
-        <v>-8.0540000000000003</v>
+        <v>-0.41099999999999998</v>
       </c>
       <c r="R24">
-        <v>42546</v>
+        <v>38899</v>
       </c>
       <c r="S24">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="T24">
-        <v>3524.306</v>
+        <v>1372.1010000000001</v>
       </c>
       <c r="U24">
-        <v>63.56</v>
+        <v>138.334</v>
       </c>
       <c r="V24">
-        <v>277.23700000000002</v>
+        <v>38.616999999999997</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-237.321</v>
+        <v>-14.901999999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-39.878999999999998</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="AA24">
-        <v>120.09699999999999</v>
+        <v>45.218000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42637</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>133.71299999999999</v>
+        <v>39.284999999999997</v>
       </c>
       <c r="D25">
-        <v>2865.1480000000001</v>
+        <v>1246.5530000000001</v>
       </c>
       <c r="E25">
-        <v>1367.604</v>
+        <v>605.05799999999999</v>
       </c>
       <c r="F25">
-        <v>787.67499999999995</v>
+        <v>359.05799999999999</v>
       </c>
       <c r="G25">
-        <v>3285.9549999999999</v>
+        <v>1516.65</v>
       </c>
       <c r="H25">
-        <v>6633.5929999999998</v>
+        <v>2717.62</v>
       </c>
       <c r="I25">
-        <v>931.09</v>
+        <v>365.70400000000001</v>
       </c>
       <c r="J25">
-        <v>718.024</v>
+        <v>456.48700000000002</v>
       </c>
       <c r="K25">
-        <v>333.12299999999999</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2039.655</v>
+        <v>724.24599999999998</v>
       </c>
       <c r="O25">
-        <v>3159.0459999999998</v>
+        <v>1294.346</v>
       </c>
       <c r="P25">
-        <v>1068.607</v>
+        <v>499.654</v>
       </c>
       <c r="Q25">
-        <v>12.632</v>
+        <v>37.735999999999997</v>
       </c>
       <c r="R25">
-        <v>42637</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>19000</v>
+        <v>11000</v>
       </c>
       <c r="T25">
-        <v>3474.547</v>
+        <v>1423.2739999999999</v>
       </c>
       <c r="U25">
-        <v>76.191999999999993</v>
+        <v>176.07</v>
       </c>
       <c r="V25">
-        <v>178.62899999999999</v>
+        <v>64.009</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-106.31399999999999</v>
+        <v>-15.888</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-34.101999999999997</v>
+        <v>101.10899999999999</v>
       </c>
       <c r="AA25">
-        <v>133.71299999999999</v>
+        <v>39.284999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>139.21600000000001</v>
+        <v>62.997</v>
       </c>
       <c r="D26">
-        <v>3120.9340000000002</v>
+        <v>1475.0640000000001</v>
       </c>
       <c r="E26">
-        <v>1254.1389999999999</v>
+        <v>610.02</v>
       </c>
       <c r="F26">
-        <v>859.48699999999997</v>
+        <v>420.13299999999998</v>
       </c>
       <c r="G26">
-        <v>3342.78</v>
+        <v>1644.848</v>
       </c>
       <c r="H26">
-        <v>6760.3959999999997</v>
+        <v>2881.1460000000002</v>
       </c>
       <c r="I26">
-        <v>1007.249</v>
+        <v>414.06200000000001</v>
       </c>
       <c r="J26">
-        <v>715.45699999999999</v>
+        <v>455.80599999999998</v>
       </c>
       <c r="K26">
-        <v>437.476</v>
+        <v>2.528</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2320.6460000000002</v>
+        <v>810.08799999999997</v>
       </c>
       <c r="O26">
-        <v>3351.9560000000001</v>
+        <v>1388.4369999999999</v>
       </c>
       <c r="P26">
-        <v>1218.856</v>
+        <v>499.37</v>
       </c>
       <c r="Q26">
-        <v>-13.811</v>
+        <v>72.576999999999998</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="S26">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="T26">
-        <v>3408.44</v>
+        <v>1492.7090000000001</v>
       </c>
       <c r="U26">
-        <v>62.381</v>
+        <v>248.64699999999999</v>
       </c>
       <c r="V26">
-        <v>264.50799999999998</v>
+        <v>170.691</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-129.08799999999999</v>
+        <v>-12.909000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-102.032</v>
+        <v>-247.87899999999999</v>
       </c>
       <c r="AA26">
-        <v>139.21600000000001</v>
+        <v>62.997</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>140.74799999999999</v>
+        <v>43.494</v>
       </c>
       <c r="D27">
-        <v>2922.9479999999999</v>
+        <v>1310.1279999999999</v>
       </c>
       <c r="E27">
-        <v>1362.8320000000001</v>
+        <v>617.42700000000002</v>
       </c>
       <c r="F27">
-        <v>822.92</v>
+        <v>391.04599999999999</v>
       </c>
       <c r="G27">
-        <v>3392.2570000000001</v>
+        <v>1551.779</v>
       </c>
       <c r="H27">
-        <v>6844.62</v>
+        <v>2815.3919999999998</v>
       </c>
       <c r="I27">
-        <v>843.78200000000004</v>
+        <v>343.49099999999999</v>
       </c>
       <c r="J27">
-        <v>708.42200000000003</v>
+        <v>457.31799999999998</v>
       </c>
       <c r="K27">
-        <v>671.72400000000005</v>
+        <v>2.359</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-56.366999999999997</v>
+        <v>-0.71199999999999997</v>
       </c>
       <c r="N27">
-        <v>2285.4319999999998</v>
+        <v>698.17200000000003</v>
       </c>
       <c r="O27">
-        <v>3329.8359999999998</v>
+        <v>1284.3320000000001</v>
       </c>
       <c r="P27">
-        <v>1398.75</v>
+        <v>497.17200000000003</v>
       </c>
       <c r="Q27">
-        <v>0.50700000000000001</v>
+        <v>-94.191000000000003</v>
       </c>
       <c r="R27">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="T27">
-        <v>3514.7840000000001</v>
+        <v>1531.06</v>
       </c>
       <c r="U27">
-        <v>62.887999999999998</v>
+        <v>154.45599999999999</v>
       </c>
       <c r="V27">
-        <v>-52.591000000000001</v>
+        <v>-33.902000000000001</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>83.658000000000001</v>
+        <v>-15.164999999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-11.82</v>
+        <v>0.5</v>
       </c>
       <c r="AA27">
-        <v>140.74799999999999</v>
+        <v>43.494</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>136.05500000000001</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>3059.4580000000001</v>
+        <v>1387.0170000000001</v>
       </c>
       <c r="E28">
-        <v>1409.06</v>
+        <v>637.22900000000004</v>
       </c>
       <c r="F28">
-        <v>839.173</v>
+        <v>413.77699999999999</v>
       </c>
       <c r="G28">
-        <v>3463.777</v>
+        <v>1648.8579999999999</v>
       </c>
       <c r="H28">
-        <v>7097.4560000000001</v>
+        <v>2896.652</v>
       </c>
       <c r="I28">
-        <v>882.67399999999998</v>
+        <v>361.03100000000001</v>
       </c>
       <c r="J28">
-        <v>807.625</v>
+        <v>450.26</v>
       </c>
       <c r="K28">
-        <v>577.47699999999998</v>
+        <v>2.367</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2229.9450000000002</v>
+        <v>733.505</v>
       </c>
       <c r="O28">
-        <v>3415.8040000000001</v>
+        <v>1304.684</v>
       </c>
       <c r="P28">
-        <v>1402.3430000000001</v>
+        <v>480.45699999999999</v>
       </c>
       <c r="Q28">
-        <v>11.766</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="T28">
-        <v>3681.652</v>
+        <v>1591.9680000000001</v>
       </c>
       <c r="U28">
-        <v>74.653999999999996</v>
+        <v>190.971</v>
       </c>
       <c r="V28">
-        <v>228.73</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-68.183999999999997</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-137.76599999999999</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>136.05500000000001</v>
+        <v>33.837000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>138.03100000000001</v>
+        <v>59.573</v>
       </c>
       <c r="D29">
-        <v>3161.0830000000001</v>
+        <v>1505.575</v>
       </c>
       <c r="E29">
-        <v>1544.5820000000001</v>
+        <v>764.59</v>
       </c>
       <c r="F29">
-        <v>836.05399999999997</v>
+        <v>429.33</v>
       </c>
       <c r="G29">
-        <v>3782.529</v>
+        <v>1853.4690000000001</v>
       </c>
       <c r="H29">
-        <v>7486.6610000000001</v>
+        <v>3283.4929999999999</v>
       </c>
       <c r="I29">
-        <v>1029.1379999999999</v>
+        <v>514.83000000000004</v>
       </c>
       <c r="J29">
-        <v>907.59199999999998</v>
+        <v>432.279</v>
       </c>
       <c r="K29">
-        <v>631.86500000000001</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2437.1469999999999</v>
+        <v>1013.891</v>
       </c>
       <c r="O29">
-        <v>3728.7040000000002</v>
+        <v>1580.2919999999999</v>
       </c>
       <c r="P29">
-        <v>1556.704</v>
+        <v>464.185</v>
       </c>
       <c r="Q29">
-        <v>5.2249999999999996</v>
+        <v>16.486999999999998</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="S29">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="T29">
-        <v>3757.9569999999999</v>
+        <v>1703.201</v>
       </c>
       <c r="U29">
-        <v>79.879000000000005</v>
+        <v>207.458</v>
       </c>
       <c r="V29">
-        <v>131.36199999999999</v>
+        <v>69.183999999999997</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0.59399999999999997</v>
+        <v>-16.625</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-109.2</v>
+        <v>102.07299999999999</v>
       </c>
       <c r="AA29">
-        <v>138.03100000000001</v>
+        <v>59.573</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-8.5350000000000001</v>
+        <v>78.269000000000005</v>
       </c>
       <c r="D30">
-        <v>3318.0540000000001</v>
+        <v>1701.6959999999999</v>
       </c>
       <c r="E30">
-        <v>1522.807</v>
+        <v>708.30700000000002</v>
       </c>
       <c r="F30">
-        <v>900.95600000000002</v>
+        <v>482.42099999999999</v>
       </c>
       <c r="G30">
-        <v>4086.02</v>
+        <v>1848.799</v>
       </c>
       <c r="H30">
-        <v>7863.9949999999999</v>
+        <v>3313.9839999999999</v>
       </c>
       <c r="I30">
-        <v>1153.0119999999999</v>
+        <v>474.00900000000001</v>
       </c>
       <c r="J30">
-        <v>902.66300000000001</v>
+        <v>423.274</v>
       </c>
       <c r="K30">
-        <v>741.65300000000002</v>
+        <v>8.9770000000000003</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2828.9749999999999</v>
+        <v>940.63900000000001</v>
       </c>
       <c r="O30">
-        <v>4207.4470000000001</v>
+        <v>1498.079</v>
       </c>
       <c r="P30">
-        <v>1666.068</v>
+        <v>456.57</v>
       </c>
       <c r="Q30">
-        <v>94.778999999999996</v>
+        <v>40.131999999999998</v>
       </c>
       <c r="R30">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="S30">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="T30">
-        <v>3656.5479999999998</v>
+        <v>1815.905</v>
       </c>
       <c r="U30">
-        <v>174.65799999999999</v>
+        <v>247.59</v>
       </c>
       <c r="V30">
-        <v>238.01400000000001</v>
+        <v>120.286</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-128.619</v>
+        <v>3.7320000000000002</v>
       </c>
       <c r="Y30">
-        <v>5.093</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>4.1609999999999996</v>
+        <v>27.75</v>
       </c>
       <c r="AA30">
-        <v>-8.5350000000000001</v>
+        <v>78.269000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>140.21799999999999</v>
+        <v>51.44</v>
       </c>
       <c r="D31">
-        <v>2273.4499999999998</v>
+        <v>1521.777</v>
       </c>
       <c r="E31">
-        <v>1576.39</v>
+        <v>702.51900000000001</v>
       </c>
       <c r="F31">
-        <v>719.12900000000002</v>
+        <v>450.63099999999997</v>
       </c>
       <c r="G31">
-        <v>4120.8050000000003</v>
+        <v>1873.3019999999999</v>
       </c>
       <c r="H31">
-        <v>7914.8760000000002</v>
+        <v>3388.4690000000001</v>
       </c>
       <c r="I31">
-        <v>1020.739</v>
+        <v>428.69099999999997</v>
       </c>
       <c r="J31">
-        <v>1000.515</v>
+        <v>428.541</v>
       </c>
       <c r="K31">
-        <v>954.14</v>
+        <v>5.569</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-3.919</v>
       </c>
       <c r="M31">
-        <v>-7.3410000000000002</v>
+        <v>-0.97299999999999998</v>
       </c>
       <c r="N31">
-        <v>2856.2910000000002</v>
+        <v>889.52</v>
       </c>
       <c r="O31">
-        <v>4332.9430000000002</v>
+        <v>1462.62</v>
       </c>
       <c r="P31">
-        <v>1968.819</v>
+        <v>458.58499999999998</v>
       </c>
       <c r="Q31">
-        <v>-77.754999999999995</v>
+        <v>-44.554000000000002</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="S31">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="T31">
-        <v>3581.933</v>
+        <v>1925.8489999999999</v>
       </c>
       <c r="U31">
-        <v>99.234999999999999</v>
+        <v>203.036</v>
       </c>
       <c r="V31">
-        <v>-70.944000000000003</v>
+        <v>13.372999999999999</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>27.759</v>
+        <v>5.2850000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-0.36399999999999999</v>
+        <v>-35.078000000000003</v>
       </c>
       <c r="AA31">
-        <v>140.21799999999999</v>
+        <v>51.44</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>141.21199999999999</v>
+        <v>64.569999999999993</v>
       </c>
       <c r="D32">
-        <v>2316.0320000000002</v>
+        <v>1633.248</v>
       </c>
       <c r="E32">
-        <v>1561.097</v>
+        <v>731.49900000000002</v>
       </c>
       <c r="F32">
-        <v>718.32799999999997</v>
+        <v>483.16199999999998</v>
       </c>
       <c r="G32">
-        <v>4061.94</v>
+        <v>1931.123</v>
       </c>
       <c r="H32">
-        <v>7809.7860000000001</v>
+        <v>3469.5149999999999</v>
       </c>
       <c r="I32">
-        <v>1117.925</v>
+        <v>453.8</v>
       </c>
       <c r="J32">
-        <v>985.38499999999999</v>
+        <v>424.47</v>
       </c>
       <c r="K32">
-        <v>1179.3340000000001</v>
+        <v>6.2069999999999999</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3152.922</v>
+        <v>921.81799999999998</v>
       </c>
       <c r="O32">
-        <v>4593.8909999999996</v>
+        <v>1493.6310000000001</v>
       </c>
       <c r="P32">
-        <v>2177.194</v>
+        <v>454.30099999999999</v>
       </c>
       <c r="Q32">
-        <v>10.074</v>
+        <v>68.396000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="S32">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>3215.895</v>
+        <v>1975.884</v>
       </c>
       <c r="U32">
-        <v>111.321</v>
+        <v>271.43200000000002</v>
       </c>
       <c r="V32">
-        <v>287.83</v>
+        <v>125.31100000000001</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-250.02699999999999</v>
+        <v>-33.421999999999997</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-0.98</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>141.21199999999999</v>
+        <v>64.569999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>121.47799999999999</v>
+        <v>67.488</v>
       </c>
       <c r="D33">
-        <v>2355.5650000000001</v>
+        <v>1644.2090000000001</v>
       </c>
       <c r="E33">
-        <v>1627.64</v>
+        <v>767.30399999999997</v>
       </c>
       <c r="F33">
-        <v>722.35900000000004</v>
+        <v>475.59399999999999</v>
       </c>
       <c r="G33">
-        <v>4193.9520000000002</v>
+        <v>2014.2619999999999</v>
       </c>
       <c r="H33">
-        <v>8390.31</v>
+        <v>3506.5740000000001</v>
       </c>
       <c r="I33">
-        <v>1136.1199999999999</v>
+        <v>511.65499999999997</v>
       </c>
       <c r="J33">
-        <v>1000.3150000000001</v>
+        <v>268.99</v>
       </c>
       <c r="K33">
-        <v>1144.8810000000001</v>
+        <v>6.226</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3229.7849999999999</v>
+        <v>1100.6980000000001</v>
       </c>
       <c r="O33">
-        <v>4691.0919999999996</v>
+        <v>1508.3420000000001</v>
       </c>
       <c r="P33">
-        <v>2157.6779999999999</v>
+        <v>429.01799999999997</v>
       </c>
       <c r="Q33">
-        <v>7.6150000000000002</v>
+        <v>16.931999999999999</v>
       </c>
       <c r="R33">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="S33">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="T33">
-        <v>3699.2179999999998</v>
+        <v>1998.232</v>
       </c>
       <c r="U33">
-        <v>119.74</v>
+        <v>288.36399999999998</v>
       </c>
       <c r="V33">
-        <v>173.86799999999999</v>
+        <v>49.98</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-96.248000000000005</v>
+        <v>-28.913</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-37.652000000000001</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="AA33">
-        <v>121.47799999999999</v>
+        <v>67.488</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43463</v>
+        <v>39809</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>132.97300000000001</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>2472.556</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>1168.7760000000001</v>
+        <v>734.02700000000004</v>
       </c>
       <c r="F34">
-        <v>750.93100000000004</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>4175.22</v>
+        <v>2066.0659999999998</v>
       </c>
       <c r="H34">
-        <v>8500.527</v>
+        <v>3599.21</v>
       </c>
       <c r="I34">
-        <v>785.75599999999997</v>
+        <v>554.77300000000002</v>
       </c>
       <c r="J34">
-        <v>977.37599999999998</v>
+        <v>256.64800000000002</v>
       </c>
       <c r="K34">
-        <v>951.45799999999997</v>
+        <v>4.9359999999999999</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3218.8270000000002</v>
+        <v>1183.665</v>
       </c>
       <c r="O34">
-        <v>4646.5829999999996</v>
+        <v>1593.8209999999999</v>
       </c>
       <c r="P34">
-        <v>1940.0820000000001</v>
+        <v>417.98899999999998</v>
       </c>
       <c r="Q34">
-        <v>-34.383000000000003</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>43463</v>
+        <v>39809</v>
       </c>
       <c r="S34">
-        <v>18000</v>
+        <v>12550</v>
       </c>
       <c r="T34">
-        <v>3853.944</v>
+        <v>2005.3889999999999</v>
       </c>
       <c r="U34">
-        <v>56.884999999999998</v>
+        <v>369.57</v>
       </c>
       <c r="V34">
-        <v>293.952</v>
+        <v>0</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-285.26</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>2.968</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-13.244</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>132.97300000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>109.783</v>
+        <v>54.850999999999999</v>
       </c>
       <c r="D35">
-        <v>2360.268</v>
+        <v>1485.3879999999999</v>
       </c>
       <c r="E35">
-        <v>1193.0540000000001</v>
+        <v>677.19299999999998</v>
       </c>
       <c r="F35">
-        <v>751.69</v>
+        <v>438.363</v>
       </c>
       <c r="G35">
-        <v>3109.1109999999999</v>
+        <v>1940.316</v>
       </c>
       <c r="H35">
-        <v>7144.8639999999996</v>
+        <v>3432.5439999999999</v>
       </c>
       <c r="I35">
-        <v>695.20399999999995</v>
+        <v>426.06599999999997</v>
       </c>
       <c r="J35">
-        <v>970.41800000000001</v>
+        <v>256.33300000000003</v>
       </c>
       <c r="K35">
-        <v>299.91399999999999</v>
+        <v>1.911</v>
       </c>
       <c r="L35">
-        <v>-652.11699999999996</v>
+        <v>-3.1890000000000001</v>
       </c>
       <c r="M35">
-        <v>-7.3760000000000003</v>
+        <v>-1.712</v>
       </c>
       <c r="N35">
-        <v>1878.7760000000001</v>
+        <v>1011.885</v>
       </c>
       <c r="O35">
-        <v>3443.491</v>
+        <v>1410.4839999999999</v>
       </c>
       <c r="P35">
-        <v>1538.299</v>
+        <v>413.28800000000001</v>
       </c>
       <c r="Q35">
-        <v>31.23</v>
+        <v>-61.414000000000001</v>
       </c>
       <c r="R35">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="S35">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="T35">
-        <v>3701.373</v>
+        <v>2022.06</v>
       </c>
       <c r="U35">
-        <v>88.114999999999995</v>
+        <v>308.15600000000001</v>
       </c>
       <c r="V35">
-        <v>-33.738999999999997</v>
+        <v>-27.128</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>632.12900000000002</v>
+        <v>-6.4340000000000002</v>
       </c>
       <c r="Y35">
-        <v>190.39</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-593.47299999999996</v>
+        <v>2.74</v>
       </c>
       <c r="AA35">
-        <v>109.783</v>
+        <v>54.850999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>114.532</v>
+        <v>73.472999999999999</v>
       </c>
       <c r="D36">
-        <v>2447.8270000000002</v>
+        <v>1607.434</v>
       </c>
       <c r="E36">
-        <v>1203.925</v>
+        <v>730.99599999999998</v>
       </c>
       <c r="F36">
-        <v>767.43100000000004</v>
+        <v>475.91800000000001</v>
       </c>
       <c r="G36">
-        <v>3108.7139999999999</v>
+        <v>2089.29</v>
       </c>
       <c r="H36">
-        <v>7112.3370000000004</v>
+        <v>3645.49</v>
       </c>
       <c r="I36">
-        <v>745.62099999999998</v>
+        <v>435.57900000000001</v>
       </c>
       <c r="J36">
-        <v>970.02200000000005</v>
+        <v>261.22899999999998</v>
       </c>
       <c r="K36">
-        <v>242.78700000000001</v>
+        <v>2.0139999999999998</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1825.277</v>
+        <v>1057.6120000000001</v>
       </c>
       <c r="O36">
-        <v>3378.4090000000001</v>
+        <v>1473.865</v>
       </c>
       <c r="P36">
-        <v>1471.598</v>
+        <v>417.49400000000003</v>
       </c>
       <c r="Q36">
-        <v>-3.1909999999999998</v>
+        <v>85.716999999999999</v>
       </c>
       <c r="R36">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="S36">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="T36">
-        <v>3733.9279999999999</v>
+        <v>2171.625</v>
       </c>
       <c r="U36">
-        <v>84.924000000000007</v>
+        <v>393.87299999999999</v>
       </c>
       <c r="V36">
-        <v>163.23099999999999</v>
+        <v>106.703</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-121.569</v>
+        <v>3.2919999999999998</v>
       </c>
       <c r="Y36">
-        <v>181.36500000000001</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-18.468</v>
+        <v>1.3</v>
       </c>
       <c r="AA36">
-        <v>114.532</v>
+        <v>73.472999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43736</v>
+        <v>40082</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>140.55699999999999</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>2508.7669999999998</v>
+        <v>1659.433</v>
       </c>
       <c r="E37">
-        <v>1278.9390000000001</v>
+        <v>764.28499999999997</v>
       </c>
       <c r="F37">
-        <v>761.16700000000003</v>
+        <v>476.267</v>
       </c>
       <c r="G37">
-        <v>3115.7420000000002</v>
+        <v>2079.7530000000002</v>
       </c>
       <c r="H37">
-        <v>7097.0820000000003</v>
+        <v>3703.3389999999999</v>
       </c>
       <c r="I37">
-        <v>854.65800000000002</v>
+        <v>507.46199999999999</v>
       </c>
       <c r="J37">
-        <v>869.11599999999999</v>
+        <v>242.511</v>
       </c>
       <c r="K37">
-        <v>107.84099999999999</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1908.692</v>
+        <v>1029.134</v>
       </c>
       <c r="O37">
-        <v>3354.4470000000001</v>
+        <v>1451.636</v>
       </c>
       <c r="P37">
-        <v>1339.1369999999999</v>
+        <v>268.17500000000001</v>
       </c>
       <c r="Q37">
-        <v>-9.6679999999999993</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>43736</v>
+        <v>40082</v>
       </c>
       <c r="S37">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="T37">
-        <v>3742.6350000000002</v>
+        <v>2251.703</v>
       </c>
       <c r="U37">
-        <v>75.256</v>
+        <v>317.60700000000003</v>
       </c>
       <c r="V37">
-        <v>232.035</v>
+        <v>0</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-189.78800000000001</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>185.61799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-34.652000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>140.55699999999999</v>
+        <v>96.421000000000006</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43827</v>
+        <v>40173</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>329.86200000000002</v>
+        <v>86.408000000000001</v>
       </c>
       <c r="D38">
-        <v>2668.9409999999998</v>
+        <v>1786.0809999999999</v>
       </c>
       <c r="E38">
-        <v>1246.2460000000001</v>
+        <v>725.39700000000005</v>
       </c>
       <c r="F38">
-        <v>810.59799999999996</v>
+        <v>526.27200000000005</v>
       </c>
       <c r="G38">
-        <v>3226.502</v>
+        <v>2203.5329999999999</v>
       </c>
       <c r="H38">
-        <v>7151.1009999999997</v>
+        <v>3835.9850000000001</v>
       </c>
       <c r="I38">
-        <v>880.26599999999996</v>
+        <v>521.07899999999995</v>
       </c>
       <c r="J38">
-        <v>619.25</v>
+        <v>243.37299999999999</v>
       </c>
       <c r="K38">
-        <v>23.975000000000001</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2038.3689999999999</v>
+        <v>1076.2539999999999</v>
       </c>
       <c r="O38">
-        <v>3233.7060000000001</v>
+        <v>1495.9069999999999</v>
       </c>
       <c r="P38">
-        <v>998.34799999999996</v>
+        <v>267.86500000000001</v>
       </c>
       <c r="Q38">
-        <v>7.5170000000000003</v>
+        <v>153.547</v>
       </c>
       <c r="R38">
-        <v>43827</v>
+        <v>40173</v>
       </c>
       <c r="S38">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="T38">
-        <v>3917.395</v>
+        <v>2340.078</v>
       </c>
       <c r="U38">
-        <v>106.09699999999999</v>
+        <v>471.154</v>
       </c>
       <c r="V38">
-        <v>292.56</v>
+        <v>178.51300000000001</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-536.75199999999995</v>
+        <v>1.6759999999999999</v>
       </c>
       <c r="Y38">
-        <v>179.92500000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>297.96499999999997</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="AA38">
-        <v>329.86200000000002</v>
+        <v>86.408000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43918</v>
+        <v>40264</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>130.261</v>
+        <v>60.9</v>
       </c>
       <c r="D39">
-        <v>2428.8710000000001</v>
+        <v>1760.31</v>
       </c>
       <c r="E39">
-        <v>1198.7429999999999</v>
+        <v>803.04399999999998</v>
       </c>
       <c r="F39">
-        <v>746.03899999999999</v>
+        <v>513.03300000000002</v>
       </c>
       <c r="G39">
-        <v>3619.105</v>
+        <v>2219.3719999999998</v>
       </c>
       <c r="H39">
-        <v>7519.2</v>
+        <v>4262.6310000000003</v>
       </c>
       <c r="I39">
-        <v>780.85299999999995</v>
+        <v>483.29899999999998</v>
       </c>
       <c r="J39">
-        <v>861.85299999999995</v>
+        <v>522.88199999999995</v>
       </c>
       <c r="K39">
-        <v>381.899</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-0.93100000000000005</v>
       </c>
       <c r="M39">
-        <v>-8.4779999999999998</v>
+        <v>-1.843</v>
       </c>
       <c r="N39">
-        <v>2205.8339999999998</v>
+        <v>1013.871</v>
       </c>
       <c r="O39">
-        <v>3641.2820000000002</v>
+        <v>1784.5260000000001</v>
       </c>
       <c r="P39">
-        <v>1583.3579999999999</v>
+        <v>548.52099999999996</v>
       </c>
       <c r="Q39">
-        <v>511.27100000000002</v>
+        <v>-115.76600000000001</v>
       </c>
       <c r="R39">
-        <v>43918</v>
+        <v>40264</v>
       </c>
       <c r="S39">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="T39">
-        <v>3877.9180000000001</v>
+        <v>2478.105</v>
       </c>
       <c r="U39">
-        <v>617.36800000000005</v>
+        <v>355.38799999999998</v>
       </c>
       <c r="V39">
-        <v>90.474999999999994</v>
+        <v>21.675000000000001</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>491.89</v>
+        <v>5.64</v>
       </c>
       <c r="Y39">
-        <v>166.94900000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-37.947000000000003</v>
+        <v>-25.684000000000001</v>
       </c>
       <c r="AA39">
-        <v>130.261</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44009</v>
+        <v>40355</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-10.797000000000001</v>
+        <v>84.001000000000005</v>
       </c>
       <c r="D40">
-        <v>1684.3989999999999</v>
+        <v>1849.4010000000001</v>
       </c>
       <c r="E40">
-        <v>1101.201</v>
+        <v>829.91700000000003</v>
       </c>
       <c r="F40">
-        <v>454.29399999999998</v>
+        <v>545.64400000000001</v>
       </c>
       <c r="G40">
-        <v>3409.2060000000001</v>
+        <v>2212.5450000000001</v>
       </c>
       <c r="H40">
-        <v>7318.125</v>
+        <v>4417.665</v>
       </c>
       <c r="I40">
-        <v>734.95699999999999</v>
+        <v>504.24799999999999</v>
       </c>
       <c r="J40">
-        <v>512.07600000000002</v>
+        <v>523.42100000000005</v>
       </c>
       <c r="K40">
-        <v>503.178</v>
+        <v>0.255</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2307.241</v>
+        <v>1026.1969999999999</v>
       </c>
       <c r="O40">
-        <v>3417.355</v>
+        <v>1809.568</v>
       </c>
       <c r="P40">
-        <v>1353.6189999999999</v>
+        <v>548.89099999999996</v>
       </c>
       <c r="Q40">
-        <v>-321.25799999999998</v>
+        <v>-34.271999999999998</v>
       </c>
       <c r="R40">
-        <v>44009</v>
+        <v>40355</v>
       </c>
       <c r="S40">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="T40">
-        <v>3900.77</v>
+        <v>2608.0970000000002</v>
       </c>
       <c r="U40">
-        <v>296.11</v>
+        <v>321.11599999999999</v>
       </c>
       <c r="V40">
-        <v>-90.745000000000005</v>
+        <v>107.313</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-230.41300000000001</v>
+        <v>-47.012</v>
       </c>
       <c r="Y40">
-        <v>167.06800000000001</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0.222</v>
+        <v>-192.50200000000001</v>
       </c>
       <c r="AA40">
-        <v>-10.797000000000001</v>
+        <v>84.001000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44100</v>
+        <v>40446</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>141.697</v>
+        <v>87.893000000000001</v>
       </c>
       <c r="D41">
-        <v>2840.1460000000002</v>
+        <v>1893.511</v>
       </c>
       <c r="E41">
-        <v>1407.6759999999999</v>
+        <v>923.02599999999995</v>
       </c>
       <c r="F41">
-        <v>754.29899999999998</v>
+        <v>537.45600000000002</v>
       </c>
       <c r="G41">
-        <v>3869.25</v>
+        <v>2247.7739999999999</v>
       </c>
       <c r="H41">
-        <v>7809.8950000000004</v>
+        <v>4604.4589999999998</v>
       </c>
       <c r="I41">
-        <v>1006.958</v>
+        <v>532.274</v>
       </c>
       <c r="J41">
-        <v>511.59300000000002</v>
+        <v>383.495</v>
       </c>
       <c r="K41">
-        <v>507.37200000000001</v>
+        <v>201.142</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2603.8069999999998</v>
+        <v>1287.6469999999999</v>
       </c>
       <c r="O41">
-        <v>3722.9279999999999</v>
+        <v>1937.289</v>
       </c>
       <c r="P41">
-        <v>1396.269</v>
+        <v>609.79100000000005</v>
       </c>
       <c r="Q41">
-        <v>237.38499999999999</v>
+        <v>-117.386</v>
       </c>
       <c r="R41">
-        <v>44100</v>
+        <v>40446</v>
       </c>
       <c r="S41">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="T41">
-        <v>4086.9670000000001</v>
+        <v>2667.17</v>
       </c>
       <c r="U41">
-        <v>533.495</v>
+        <v>203.73</v>
       </c>
       <c r="V41">
-        <v>249.33199999999999</v>
+        <v>47.837000000000003</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>2.3079999999999998</v>
+        <v>-81.844999999999999</v>
       </c>
       <c r="Y41">
-        <v>204.375</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-2.4830000000000001</v>
+        <v>-80.108000000000004</v>
       </c>
       <c r="AA41">
-        <v>141.697</v>
+        <v>87.893000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44191</v>
+        <v>40537</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>92.995000000000005</v>
+      </c>
+      <c r="D42">
+        <v>2023.568</v>
+      </c>
+      <c r="E42">
+        <v>885.78399999999999</v>
+      </c>
+      <c r="F42">
+        <v>574.74300000000005</v>
+      </c>
+      <c r="G42">
+        <v>2169.3020000000001</v>
+      </c>
+      <c r="H42">
+        <v>4547.4709999999995</v>
+      </c>
+      <c r="I42">
+        <v>590.029</v>
+      </c>
+      <c r="J42">
+        <v>395.30900000000003</v>
+      </c>
+      <c r="K42">
+        <v>41.508000000000003</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1168.087</v>
+      </c>
+      <c r="O42">
+        <v>1830.374</v>
+      </c>
+      <c r="P42">
+        <v>441.30399999999997</v>
+      </c>
+      <c r="Q42">
+        <v>-53.381999999999998</v>
+      </c>
+      <c r="R42">
+        <v>40537</v>
+      </c>
+      <c r="S42">
+        <v>13500</v>
+      </c>
+      <c r="T42">
+        <v>2717.0970000000002</v>
+      </c>
+      <c r="U42">
+        <v>150.34800000000001</v>
+      </c>
+      <c r="V42">
+        <v>218.655</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-207.01599999999999</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-48.304000000000002</v>
+      </c>
+      <c r="AA42">
+        <v>92.995000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40628</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>76.495000000000005</v>
+      </c>
+      <c r="D43">
+        <v>1947.761</v>
+      </c>
+      <c r="E43">
+        <v>934.952</v>
+      </c>
+      <c r="F43">
+        <v>565.822</v>
+      </c>
+      <c r="G43">
+        <v>2261.511</v>
+      </c>
+      <c r="H43">
+        <v>4794.9939999999997</v>
+      </c>
+      <c r="I43">
+        <v>579.47400000000005</v>
+      </c>
+      <c r="J43">
+        <v>407.46199999999999</v>
+      </c>
+      <c r="K43">
+        <v>97.194000000000003</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-1.526</v>
+      </c>
+      <c r="N43">
+        <v>1234.203</v>
+      </c>
+      <c r="O43">
+        <v>1920.7339999999999</v>
+      </c>
+      <c r="P43">
+        <v>513.01300000000003</v>
+      </c>
+      <c r="Q43">
+        <v>-33.636000000000003</v>
+      </c>
+      <c r="R43">
+        <v>40628</v>
+      </c>
+      <c r="S43">
+        <v>14000</v>
+      </c>
+      <c r="T43">
+        <v>2874.26</v>
+      </c>
+      <c r="U43">
+        <v>116.712</v>
+      </c>
+      <c r="V43">
+        <v>48.473999999999997</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>53.128999999999998</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-131.51400000000001</v>
+      </c>
+      <c r="AA43">
+        <v>76.495000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40719</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>94.474999999999994</v>
+      </c>
+      <c r="D44">
+        <v>2130.64</v>
+      </c>
+      <c r="E44">
+        <v>963.07299999999998</v>
+      </c>
+      <c r="F44">
+        <v>612.22400000000005</v>
+      </c>
+      <c r="G44">
+        <v>2349.0100000000002</v>
+      </c>
+      <c r="H44">
+        <v>4883.759</v>
+      </c>
+      <c r="I44">
+        <v>605.78499999999997</v>
+      </c>
+      <c r="J44">
+        <v>372.92399999999998</v>
+      </c>
+      <c r="K44">
+        <v>49.235999999999997</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1236.9449999999999</v>
+      </c>
+      <c r="O44">
+        <v>1884.7750000000001</v>
+      </c>
+      <c r="P44">
+        <v>443.346</v>
+      </c>
+      <c r="Q44">
+        <v>45.076999999999998</v>
+      </c>
+      <c r="R44">
+        <v>40719</v>
+      </c>
+      <c r="S44">
+        <v>14000</v>
+      </c>
+      <c r="T44">
+        <v>2998.9839999999999</v>
+      </c>
+      <c r="U44">
+        <v>161.78899999999999</v>
+      </c>
+      <c r="V44">
+        <v>137.99799999999999</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-76.301000000000002</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-9.9719999999999995</v>
+      </c>
+      <c r="AA44">
+        <v>94.474999999999994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40810</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>91.960999999999999</v>
+      </c>
+      <c r="D45">
+        <v>2111.6930000000002</v>
+      </c>
+      <c r="E45">
+        <v>983.06</v>
+      </c>
+      <c r="F45">
+        <v>587.41999999999996</v>
+      </c>
+      <c r="G45">
+        <v>2317.1320000000001</v>
+      </c>
+      <c r="H45">
+        <v>4798.2960000000003</v>
+      </c>
+      <c r="I45">
+        <v>595.476</v>
+      </c>
+      <c r="J45">
+        <v>371.86399999999998</v>
+      </c>
+      <c r="K45">
+        <v>40.015000000000001</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1201.3520000000001</v>
+      </c>
+      <c r="O45">
+        <v>1840.674</v>
+      </c>
+      <c r="P45">
+        <v>431.95499999999998</v>
+      </c>
+      <c r="Q45">
+        <v>-54.917000000000002</v>
+      </c>
+      <c r="R45">
+        <v>40810</v>
+      </c>
+      <c r="S45">
+        <v>14000</v>
+      </c>
+      <c r="T45">
+        <v>2957.6219999999998</v>
+      </c>
+      <c r="U45">
+        <v>106.872</v>
+      </c>
+      <c r="V45">
+        <v>90.326999999999998</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-120.798</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0.3</v>
+      </c>
+      <c r="AA45">
+        <v>91.960999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>104.73</v>
+      </c>
+      <c r="D46">
+        <v>2340.1480000000001</v>
+      </c>
+      <c r="E46">
+        <v>888.24800000000005</v>
+      </c>
+      <c r="F46">
+        <v>652.58900000000006</v>
+      </c>
+      <c r="G46">
+        <v>2272.5079999999998</v>
+      </c>
+      <c r="H46">
+        <v>4740.1440000000002</v>
+      </c>
+      <c r="I46">
+        <v>621.46799999999996</v>
+      </c>
+      <c r="J46">
+        <v>363.524</v>
+      </c>
+      <c r="K46">
+        <v>55.014000000000003</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1271.6400000000001</v>
+      </c>
+      <c r="O46">
+        <v>1904.471</v>
+      </c>
+      <c r="P46">
+        <v>441.35700000000003</v>
+      </c>
+      <c r="Q46">
+        <v>40.411999999999999</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>15000</v>
+      </c>
+      <c r="T46">
+        <v>2835.6729999999998</v>
+      </c>
+      <c r="U46">
+        <v>147.28399999999999</v>
+      </c>
+      <c r="V46">
+        <v>277.82600000000002</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-213.244</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-5.617</v>
+      </c>
+      <c r="AA46">
+        <v>104.73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>80.751999999999995</v>
+      </c>
+      <c r="D47">
+        <v>2099.0189999999998</v>
+      </c>
+      <c r="E47">
+        <v>957.47</v>
+      </c>
+      <c r="F47">
+        <v>610.57899999999995</v>
+      </c>
+      <c r="G47">
+        <v>2307.0100000000002</v>
+      </c>
+      <c r="H47">
+        <v>4759.6329999999998</v>
+      </c>
+      <c r="I47">
+        <v>571.34100000000001</v>
+      </c>
+      <c r="J47">
+        <v>453.05799999999999</v>
+      </c>
+      <c r="K47">
+        <v>5.0039999999999996</v>
+      </c>
+      <c r="L47">
+        <v>-50.015999999999998</v>
+      </c>
+      <c r="M47">
+        <v>-10.65</v>
+      </c>
+      <c r="N47">
+        <v>1139.136</v>
+      </c>
+      <c r="O47">
+        <v>1863.1189999999999</v>
+      </c>
+      <c r="P47">
+        <v>481.09</v>
+      </c>
+      <c r="Q47">
+        <v>-45.470999999999997</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>15000</v>
+      </c>
+      <c r="T47">
+        <v>2896.5140000000001</v>
+      </c>
+      <c r="U47">
+        <v>101.813</v>
+      </c>
+      <c r="V47">
+        <v>-48.604999999999997</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>30.908999999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-17.829999999999998</v>
+      </c>
+      <c r="AA47">
+        <v>80.751999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>98.085999999999999</v>
+      </c>
+      <c r="D48">
+        <v>2201.4520000000002</v>
+      </c>
+      <c r="E48">
+        <v>972.29200000000003</v>
+      </c>
+      <c r="F48">
+        <v>624.39499999999998</v>
+      </c>
+      <c r="G48">
+        <v>2331.1439999999998</v>
+      </c>
+      <c r="H48">
+        <v>4835.2560000000003</v>
+      </c>
+      <c r="I48">
+        <v>619.93600000000004</v>
+      </c>
+      <c r="J48">
+        <v>434.41699999999997</v>
+      </c>
+      <c r="K48">
+        <v>83.453999999999994</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1283.454</v>
+      </c>
+      <c r="O48">
+        <v>1986.098</v>
+      </c>
+      <c r="P48">
+        <v>535</v>
+      </c>
+      <c r="Q48">
+        <v>-13.917</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>15000</v>
+      </c>
+      <c r="T48">
+        <v>2849.1579999999999</v>
+      </c>
+      <c r="U48">
+        <v>87.896000000000001</v>
+      </c>
+      <c r="V48">
+        <v>178.49799999999999</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-74.796000000000006</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-98.492999999999995</v>
+      </c>
+      <c r="AA48">
+        <v>98.085999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>96.771000000000001</v>
+      </c>
+      <c r="D49">
+        <v>2231.058</v>
+      </c>
+      <c r="E49">
+        <v>1035.529</v>
+      </c>
+      <c r="F49">
+        <v>609.04399999999998</v>
+      </c>
+      <c r="G49">
+        <v>2512.1790000000001</v>
+      </c>
+      <c r="H49">
+        <v>5111.5320000000002</v>
+      </c>
+      <c r="I49">
+        <v>707.64099999999996</v>
+      </c>
+      <c r="J49">
+        <v>436.42599999999999</v>
+      </c>
+      <c r="K49">
+        <v>155.21899999999999</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1448.9580000000001</v>
+      </c>
+      <c r="O49">
+        <v>2162.7629999999999</v>
+      </c>
+      <c r="P49">
+        <v>609.38400000000001</v>
+      </c>
+      <c r="Q49">
+        <v>1.44</v>
+      </c>
+      <c r="R49">
+        <v>41181</v>
+      </c>
+      <c r="S49">
+        <v>15000</v>
+      </c>
+      <c r="T49">
+        <v>2948.7689999999998</v>
+      </c>
+      <c r="U49">
+        <v>89.335999999999999</v>
+      </c>
+      <c r="V49">
+        <v>78.545000000000002</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>14.592000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-83.912999999999997</v>
+      </c>
+      <c r="AA49">
+        <v>96.771000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41272</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>112.467</v>
+      </c>
+      <c r="D50">
+        <v>2408.4380000000001</v>
+      </c>
+      <c r="E50">
+        <v>1015.194</v>
+      </c>
+      <c r="F50">
+        <v>663.495</v>
+      </c>
+      <c r="G50">
+        <v>2704.377</v>
+      </c>
+      <c r="H50">
+        <v>5333.9970000000003</v>
+      </c>
+      <c r="I50">
+        <v>787.65800000000002</v>
+      </c>
+      <c r="J50">
+        <v>488.12099999999998</v>
+      </c>
+      <c r="K50">
+        <v>27.166</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1472.7090000000001</v>
+      </c>
+      <c r="O50">
+        <v>2282.9580000000001</v>
+      </c>
+      <c r="P50">
+        <v>533.279</v>
+      </c>
+      <c r="Q50">
+        <v>32.744</v>
+      </c>
+      <c r="R50">
+        <v>41272</v>
+      </c>
+      <c r="S50">
+        <v>15000</v>
+      </c>
+      <c r="T50">
+        <v>3051.0390000000002</v>
+      </c>
+      <c r="U50">
+        <v>122.08</v>
+      </c>
+      <c r="V50">
+        <v>199.661</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-141.30600000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-10.776999999999999</v>
+      </c>
+      <c r="AA50">
+        <v>112.467</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>91.477999999999994</v>
+      </c>
+      <c r="D51">
+        <v>2293.511</v>
+      </c>
+      <c r="E51">
+        <v>1028.163</v>
+      </c>
+      <c r="F51">
+        <v>646.99099999999999</v>
+      </c>
+      <c r="G51">
+        <v>2585.415</v>
+      </c>
+      <c r="H51">
+        <v>5205.6859999999997</v>
+      </c>
+      <c r="I51">
+        <v>609.02800000000002</v>
+      </c>
+      <c r="J51">
+        <v>600.59900000000005</v>
+      </c>
+      <c r="K51">
+        <v>50.073</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-232.905</v>
+      </c>
+      <c r="N51">
+        <v>1242.569</v>
+      </c>
+      <c r="O51">
+        <v>2162.6489999999999</v>
+      </c>
+      <c r="P51">
+        <v>652.58000000000004</v>
+      </c>
+      <c r="Q51">
+        <v>-31.518000000000001</v>
+      </c>
+      <c r="R51">
+        <v>41363</v>
+      </c>
+      <c r="S51">
+        <v>15500</v>
+      </c>
+      <c r="T51">
+        <v>3043.0369999999998</v>
+      </c>
+      <c r="U51">
+        <v>90.561999999999998</v>
+      </c>
+      <c r="V51">
+        <v>-38.046999999999997</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>56.073</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-32.359000000000002</v>
+      </c>
+      <c r="AA51">
+        <v>91.477999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>108.43</v>
+      </c>
+      <c r="D52">
+        <v>2391.81</v>
+      </c>
+      <c r="E52">
+        <v>1039.914</v>
+      </c>
+      <c r="F52">
+        <v>669.85599999999999</v>
+      </c>
+      <c r="G52">
+        <v>2573.2660000000001</v>
+      </c>
+      <c r="H52">
+        <v>5164.5060000000003</v>
+      </c>
+      <c r="I52">
+        <v>682.60400000000004</v>
+      </c>
+      <c r="J52">
+        <v>446.709</v>
+      </c>
+      <c r="K52">
+        <v>15.587999999999999</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1314.335</v>
+      </c>
+      <c r="O52">
+        <v>2081.0439999999999</v>
+      </c>
+      <c r="P52">
+        <v>468.19099999999997</v>
+      </c>
+      <c r="Q52">
+        <v>-11.723000000000001</v>
+      </c>
+      <c r="R52">
+        <v>41454</v>
+      </c>
+      <c r="S52">
+        <v>16000</v>
+      </c>
+      <c r="T52">
+        <v>3083.462</v>
+      </c>
+      <c r="U52">
+        <v>78.838999999999999</v>
+      </c>
+      <c r="V52">
+        <v>274.798</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-268.74400000000003</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-1.349</v>
+      </c>
+      <c r="AA52">
+        <v>108.43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>107.378</v>
+      </c>
+      <c r="D53">
+        <v>2348.9560000000001</v>
+      </c>
+      <c r="E53">
+        <v>1103.2719999999999</v>
+      </c>
+      <c r="F53">
+        <v>639.64700000000005</v>
+      </c>
+      <c r="G53">
+        <v>2635.42</v>
+      </c>
+      <c r="H53">
+        <v>5278.0889999999999</v>
+      </c>
+      <c r="I53">
+        <v>723.90499999999997</v>
+      </c>
+      <c r="J53">
+        <v>311.45800000000003</v>
+      </c>
+      <c r="K53">
+        <v>15.750999999999999</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1446.4449999999999</v>
+      </c>
+      <c r="O53">
+        <v>2092.1030000000001</v>
+      </c>
+      <c r="P53">
+        <v>407.79700000000003</v>
+      </c>
+      <c r="Q53">
+        <v>-8.9239999999999995</v>
+      </c>
+      <c r="R53">
+        <v>41545</v>
+      </c>
+      <c r="S53">
+        <v>16000</v>
+      </c>
+      <c r="T53">
+        <v>3185.9859999999999</v>
+      </c>
+      <c r="U53">
+        <v>69.915000000000006</v>
+      </c>
+      <c r="V53">
+        <v>152.79599999999999</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-136.56899999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-14.17</v>
+      </c>
+      <c r="AA53">
+        <v>107.378</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>124.268</v>
+      </c>
+      <c r="D54">
+        <v>2526.37</v>
+      </c>
+      <c r="E54">
+        <v>1055.2159999999999</v>
+      </c>
+      <c r="F54">
+        <v>699.52</v>
+      </c>
+      <c r="G54">
+        <v>2834.665</v>
+      </c>
+      <c r="H54">
+        <v>5624.6360000000004</v>
+      </c>
+      <c r="I54">
+        <v>824.495</v>
+      </c>
+      <c r="J54">
+        <v>450.233</v>
+      </c>
+      <c r="K54">
+        <v>29.507999999999999</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1550.663</v>
+      </c>
+      <c r="O54">
+        <v>2339.096</v>
+      </c>
+      <c r="P54">
+        <v>485.18200000000002</v>
+      </c>
+      <c r="Q54">
+        <v>118.70099999999999</v>
+      </c>
+      <c r="R54">
+        <v>41636</v>
+      </c>
+      <c r="S54">
+        <v>16000</v>
+      </c>
+      <c r="T54">
+        <v>3285.54</v>
+      </c>
+      <c r="U54">
+        <v>188.61600000000001</v>
+      </c>
+      <c r="V54">
+        <v>274.62799999999999</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>13.266</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-147.84899999999999</v>
+      </c>
+      <c r="AA54">
+        <v>124.268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41727</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>102.099</v>
+      </c>
+      <c r="D55">
+        <v>2430.1590000000001</v>
+      </c>
+      <c r="E55">
+        <v>1116.502</v>
+      </c>
+      <c r="F55">
+        <v>696.71299999999997</v>
+      </c>
+      <c r="G55">
+        <v>2876.9059999999999</v>
+      </c>
+      <c r="H55">
+        <v>5880.11</v>
+      </c>
+      <c r="I55">
+        <v>685.91499999999996</v>
+      </c>
+      <c r="J55">
+        <v>541.68700000000001</v>
+      </c>
+      <c r="K55">
+        <v>144.042</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-0.39600000000000002</v>
+      </c>
+      <c r="N55">
+        <v>1613.261</v>
+      </c>
+      <c r="O55">
+        <v>2578.3519999999999</v>
+      </c>
+      <c r="P55">
+        <v>791.71299999999997</v>
+      </c>
+      <c r="Q55">
+        <v>-59.500999999999998</v>
+      </c>
+      <c r="R55">
+        <v>41727</v>
+      </c>
+      <c r="S55">
+        <v>17000</v>
+      </c>
+      <c r="T55">
+        <v>3301.7579999999998</v>
+      </c>
+      <c r="U55">
+        <v>129.11500000000001</v>
+      </c>
+      <c r="V55">
+        <v>-55.249000000000002</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>161.697</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-144.679</v>
+      </c>
+      <c r="AA55">
+        <v>102.099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41818</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>116.236</v>
+      </c>
+      <c r="D56">
+        <v>2615.4059999999999</v>
+      </c>
+      <c r="E56">
+        <v>1188.143</v>
+      </c>
+      <c r="F56">
+        <v>728.47199999999998</v>
+      </c>
+      <c r="G56">
+        <v>2912.0030000000002</v>
+      </c>
+      <c r="H56">
+        <v>5991.7539999999999</v>
+      </c>
+      <c r="I56">
+        <v>755.99900000000002</v>
+      </c>
+      <c r="J56">
+        <v>665.90899999999999</v>
+      </c>
+      <c r="K56">
+        <v>83.671000000000006</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1543.9010000000001</v>
+      </c>
+      <c r="O56">
+        <v>2640.2950000000001</v>
+      </c>
+      <c r="P56">
+        <v>755.88199999999995</v>
+      </c>
+      <c r="Q56">
+        <v>-39.417000000000002</v>
+      </c>
+      <c r="R56">
+        <v>41818</v>
+      </c>
+      <c r="S56">
+        <v>17000</v>
+      </c>
+      <c r="T56">
+        <v>3351.4589999999998</v>
+      </c>
+      <c r="U56">
+        <v>89.697999999999993</v>
+      </c>
+      <c r="V56">
+        <v>199.232</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-140.36500000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-78.177999999999997</v>
+      </c>
+      <c r="AA56">
+        <v>116.236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41909</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>114.776</v>
+      </c>
+      <c r="D57">
+        <v>2623.7289999999998</v>
+      </c>
+      <c r="E57">
+        <v>1179.171</v>
+      </c>
+      <c r="F57">
+        <v>721.66600000000005</v>
+      </c>
+      <c r="G57">
+        <v>2928.2370000000001</v>
+      </c>
+      <c r="H57">
+        <v>6130.6310000000003</v>
+      </c>
+      <c r="I57">
+        <v>822.06799999999998</v>
+      </c>
+      <c r="J57">
+        <v>630.80600000000004</v>
+      </c>
+      <c r="K57">
+        <v>188.815</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1705.8340000000001</v>
+      </c>
+      <c r="O57">
+        <v>2760.06</v>
+      </c>
+      <c r="P57">
+        <v>825.40300000000002</v>
+      </c>
+      <c r="Q57">
+        <v>-13.156000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41909</v>
+      </c>
+      <c r="S57">
+        <v>17000</v>
+      </c>
+      <c r="T57">
+        <v>3370.5709999999999</v>
+      </c>
+      <c r="U57">
+        <v>76.542000000000002</v>
+      </c>
+      <c r="V57">
+        <v>174.50200000000001</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-9.8420000000000005</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-139.25299999999999</v>
+      </c>
+      <c r="AA57">
+        <v>114.776</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>132.96600000000001</v>
+      </c>
+      <c r="D58">
+        <v>2702.096</v>
+      </c>
+      <c r="E58">
+        <v>1127.5170000000001</v>
+      </c>
+      <c r="F58">
+        <v>764.46400000000006</v>
+      </c>
+      <c r="G58">
+        <v>2913.1660000000002</v>
+      </c>
+      <c r="H58">
+        <v>6138.8069999999998</v>
+      </c>
+      <c r="I58">
+        <v>860.99599999999998</v>
+      </c>
+      <c r="J58">
+        <v>542.77599999999995</v>
+      </c>
+      <c r="K58">
+        <v>182.899</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1780.1110000000001</v>
+      </c>
+      <c r="O58">
+        <v>2757.835</v>
+      </c>
+      <c r="P58">
+        <v>731.49</v>
+      </c>
+      <c r="Q58">
+        <v>12.932</v>
+      </c>
+      <c r="R58">
+        <v>42000</v>
+      </c>
+      <c r="S58">
+        <v>17500</v>
+      </c>
+      <c r="T58">
+        <v>3380.9720000000002</v>
+      </c>
+      <c r="U58">
+        <v>89.474000000000004</v>
+      </c>
+      <c r="V58">
+        <v>274.01900000000001</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-166.137</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-58.923000000000002</v>
+      </c>
+      <c r="AA58">
+        <v>132.96600000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42091</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>103.447</v>
+      </c>
+      <c r="D59">
+        <v>2463.6460000000002</v>
+      </c>
+      <c r="E59">
+        <v>1099.2729999999999</v>
+      </c>
+      <c r="F59">
+        <v>713.39499999999998</v>
+      </c>
+      <c r="G59">
+        <v>2802.2539999999999</v>
+      </c>
+      <c r="H59">
+        <v>5939.2640000000001</v>
+      </c>
+      <c r="I59">
+        <v>716.97500000000002</v>
+      </c>
+      <c r="J59">
+        <v>653.71799999999996</v>
+      </c>
+      <c r="K59">
+        <v>163.06700000000001</v>
+      </c>
+      <c r="L59">
+        <v>-19.885999999999999</v>
+      </c>
+      <c r="M59">
+        <v>-0.73599999999999999</v>
+      </c>
+      <c r="N59">
+        <v>1546.8389999999999</v>
+      </c>
+      <c r="O59">
+        <v>2630.248</v>
+      </c>
+      <c r="P59">
+        <v>831.37099999999998</v>
+      </c>
+      <c r="Q59">
+        <v>-30.271999999999998</v>
+      </c>
+      <c r="R59">
+        <v>42091</v>
+      </c>
+      <c r="S59">
+        <v>18000</v>
+      </c>
+      <c r="T59">
+        <v>3309.0160000000001</v>
+      </c>
+      <c r="U59">
+        <v>59.201999999999998</v>
+      </c>
+      <c r="V59">
+        <v>-26.654</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>35.774000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-13.637</v>
+      </c>
+      <c r="AA59">
+        <v>103.447</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>117.928</v>
+      </c>
+      <c r="D60">
+        <v>2629.32</v>
+      </c>
+      <c r="E60">
+        <v>1164.3800000000001</v>
+      </c>
+      <c r="F60">
+        <v>750.678</v>
+      </c>
+      <c r="G60">
+        <v>2905.337</v>
+      </c>
+      <c r="H60">
+        <v>6105.6260000000002</v>
+      </c>
+      <c r="I60">
+        <v>778.74800000000005</v>
+      </c>
+      <c r="J60">
+        <v>588.52300000000002</v>
+      </c>
+      <c r="K60">
+        <v>132.428</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1636.742</v>
+      </c>
+      <c r="O60">
+        <v>2671.9380000000001</v>
+      </c>
+      <c r="P60">
+        <v>735.66700000000003</v>
+      </c>
+      <c r="Q60">
+        <v>-12.134</v>
+      </c>
+      <c r="R60">
+        <v>42182</v>
+      </c>
+      <c r="S60">
+        <v>18000</v>
+      </c>
+      <c r="T60">
+        <v>3433.6880000000001</v>
+      </c>
+      <c r="U60">
+        <v>47.067999999999998</v>
+      </c>
+      <c r="V60">
+        <v>207.756</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-152.511</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-47.658999999999999</v>
+      </c>
+      <c r="AA60">
+        <v>117.928</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42273</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>127.735</v>
+      </c>
+      <c r="D61">
+        <v>2685.835</v>
+      </c>
+      <c r="E61">
+        <v>1223.636</v>
+      </c>
+      <c r="F61">
+        <v>748.90800000000002</v>
+      </c>
+      <c r="G61">
+        <v>3120.1729999999998</v>
+      </c>
+      <c r="H61">
+        <v>6371.558</v>
+      </c>
+      <c r="I61">
+        <v>873.78499999999997</v>
+      </c>
+      <c r="J61">
+        <v>597.10599999999999</v>
+      </c>
+      <c r="K61">
+        <v>186.886</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1797.2809999999999</v>
+      </c>
+      <c r="O61">
+        <v>2845.0210000000002</v>
+      </c>
+      <c r="P61">
+        <v>798.44799999999998</v>
+      </c>
+      <c r="Q61">
+        <v>13.413</v>
+      </c>
+      <c r="R61">
+        <v>42273</v>
+      </c>
+      <c r="S61">
+        <v>18000</v>
+      </c>
+      <c r="T61">
+        <v>3526.5369999999998</v>
+      </c>
+      <c r="U61">
+        <v>60.481000000000002</v>
+      </c>
+      <c r="V61">
+        <v>107.428</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>18.73</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-80.762</v>
+      </c>
+      <c r="AA61">
+        <v>127.735</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42364</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>129.94800000000001</v>
+      </c>
+      <c r="D62">
+        <v>2850.9180000000001</v>
+      </c>
+      <c r="E62">
+        <v>1229.816</v>
+      </c>
+      <c r="F62">
+        <v>799.27800000000002</v>
+      </c>
+      <c r="G62">
+        <v>3231.1</v>
+      </c>
+      <c r="H62">
+        <v>6504.74</v>
+      </c>
+      <c r="I62">
+        <v>1005.798</v>
+      </c>
+      <c r="J62">
+        <v>463.75200000000001</v>
+      </c>
+      <c r="K62">
+        <v>328.63099999999997</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2146.9969999999998</v>
+      </c>
+      <c r="O62">
+        <v>3075.732</v>
+      </c>
+      <c r="P62">
+        <v>809.71400000000006</v>
+      </c>
+      <c r="Q62">
+        <v>11.605</v>
+      </c>
+      <c r="R62">
+        <v>42364</v>
+      </c>
+      <c r="S62">
+        <v>19000</v>
+      </c>
+      <c r="T62">
+        <v>3429.0079999999998</v>
+      </c>
+      <c r="U62">
+        <v>72.085999999999999</v>
+      </c>
+      <c r="V62">
+        <v>298.31099999999998</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-221.364</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-29.783000000000001</v>
+      </c>
+      <c r="AA62">
+        <v>129.94800000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42455</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>113.752</v>
+      </c>
+      <c r="D63">
+        <v>2712.9560000000001</v>
+      </c>
+      <c r="E63">
+        <v>1274.95</v>
+      </c>
+      <c r="F63">
+        <v>777.84199999999998</v>
+      </c>
+      <c r="G63">
+        <v>3271.0030000000002</v>
+      </c>
+      <c r="H63">
+        <v>6600.57</v>
+      </c>
+      <c r="I63">
+        <v>809.12400000000002</v>
+      </c>
+      <c r="J63">
+        <v>666.28300000000002</v>
+      </c>
+      <c r="K63">
+        <v>424.03</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-7.5540000000000003</v>
+      </c>
+      <c r="N63">
+        <v>1987.5039999999999</v>
+      </c>
+      <c r="O63">
+        <v>3154.3389999999999</v>
+      </c>
+      <c r="P63">
+        <v>1107.646</v>
+      </c>
+      <c r="Q63">
+        <v>-0.47199999999999998</v>
+      </c>
+      <c r="R63">
+        <v>42455</v>
+      </c>
+      <c r="S63">
+        <v>19000</v>
+      </c>
+      <c r="T63">
+        <v>3446.2310000000002</v>
+      </c>
+      <c r="U63">
+        <v>71.614000000000004</v>
+      </c>
+      <c r="V63">
+        <v>-77.798000000000002</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>145.37899999999999</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-52.561999999999998</v>
+      </c>
+      <c r="AA63">
+        <v>113.752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42546</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>120.09699999999999</v>
+      </c>
+      <c r="D64">
+        <v>2872.63</v>
+      </c>
+      <c r="E64">
+        <v>1296.2249999999999</v>
+      </c>
+      <c r="F64">
+        <v>801.46900000000005</v>
+      </c>
+      <c r="G64">
+        <v>3277.5909999999999</v>
+      </c>
+      <c r="H64">
+        <v>6633.5959999999995</v>
+      </c>
+      <c r="I64">
+        <v>881.66700000000003</v>
+      </c>
+      <c r="J64">
+        <v>700.05200000000002</v>
+      </c>
+      <c r="K64">
+        <v>237.809</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1910.912</v>
+      </c>
+      <c r="O64">
+        <v>3109.29</v>
+      </c>
+      <c r="P64">
+        <v>955.05</v>
+      </c>
+      <c r="Q64">
+        <v>-8.0540000000000003</v>
+      </c>
+      <c r="R64">
+        <v>42546</v>
+      </c>
+      <c r="S64">
+        <v>19000</v>
+      </c>
+      <c r="T64">
+        <v>3524.306</v>
+      </c>
+      <c r="U64">
+        <v>63.56</v>
+      </c>
+      <c r="V64">
+        <v>277.23700000000002</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-237.321</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-39.878999999999998</v>
+      </c>
+      <c r="AA64">
+        <v>120.09699999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42637</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>133.71299999999999</v>
+      </c>
+      <c r="D65">
+        <v>2865.1480000000001</v>
+      </c>
+      <c r="E65">
+        <v>1367.604</v>
+      </c>
+      <c r="F65">
+        <v>787.67499999999995</v>
+      </c>
+      <c r="G65">
+        <v>3285.9549999999999</v>
+      </c>
+      <c r="H65">
+        <v>6633.5929999999998</v>
+      </c>
+      <c r="I65">
+        <v>931.09</v>
+      </c>
+      <c r="J65">
+        <v>718.024</v>
+      </c>
+      <c r="K65">
+        <v>333.12299999999999</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2039.655</v>
+      </c>
+      <c r="O65">
+        <v>3159.0459999999998</v>
+      </c>
+      <c r="P65">
+        <v>1068.607</v>
+      </c>
+      <c r="Q65">
+        <v>12.632</v>
+      </c>
+      <c r="R65">
+        <v>42637</v>
+      </c>
+      <c r="S65">
+        <v>19000</v>
+      </c>
+      <c r="T65">
+        <v>3474.547</v>
+      </c>
+      <c r="U65">
+        <v>76.191999999999993</v>
+      </c>
+      <c r="V65">
+        <v>178.62899999999999</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-106.31399999999999</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-34.101999999999997</v>
+      </c>
+      <c r="AA65">
+        <v>133.71299999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>139.21600000000001</v>
+      </c>
+      <c r="D66">
+        <v>3120.9340000000002</v>
+      </c>
+      <c r="E66">
+        <v>1254.1389999999999</v>
+      </c>
+      <c r="F66">
+        <v>859.48699999999997</v>
+      </c>
+      <c r="G66">
+        <v>3342.78</v>
+      </c>
+      <c r="H66">
+        <v>6760.3959999999997</v>
+      </c>
+      <c r="I66">
+        <v>1007.249</v>
+      </c>
+      <c r="J66">
+        <v>715.45699999999999</v>
+      </c>
+      <c r="K66">
+        <v>437.476</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2320.6460000000002</v>
+      </c>
+      <c r="O66">
+        <v>3351.9560000000001</v>
+      </c>
+      <c r="P66">
+        <v>1218.856</v>
+      </c>
+      <c r="Q66">
+        <v>-13.811</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>21000</v>
+      </c>
+      <c r="T66">
+        <v>3408.44</v>
+      </c>
+      <c r="U66">
+        <v>62.381</v>
+      </c>
+      <c r="V66">
+        <v>264.50799999999998</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-129.08799999999999</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-102.032</v>
+      </c>
+      <c r="AA66">
+        <v>139.21600000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>140.74799999999999</v>
+      </c>
+      <c r="D67">
+        <v>2922.9479999999999</v>
+      </c>
+      <c r="E67">
+        <v>1362.8320000000001</v>
+      </c>
+      <c r="F67">
+        <v>822.92</v>
+      </c>
+      <c r="G67">
+        <v>3392.2570000000001</v>
+      </c>
+      <c r="H67">
+        <v>6844.62</v>
+      </c>
+      <c r="I67">
+        <v>843.78200000000004</v>
+      </c>
+      <c r="J67">
+        <v>708.42200000000003</v>
+      </c>
+      <c r="K67">
+        <v>671.72400000000005</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-56.366999999999997</v>
+      </c>
+      <c r="N67">
+        <v>2285.4319999999998</v>
+      </c>
+      <c r="O67">
+        <v>3329.8359999999998</v>
+      </c>
+      <c r="P67">
+        <v>1398.75</v>
+      </c>
+      <c r="Q67">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42826</v>
+      </c>
+      <c r="S67">
+        <v>21000</v>
+      </c>
+      <c r="T67">
+        <v>3514.7840000000001</v>
+      </c>
+      <c r="U67">
+        <v>62.887999999999998</v>
+      </c>
+      <c r="V67">
+        <v>-52.591000000000001</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>83.658000000000001</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-11.82</v>
+      </c>
+      <c r="AA67">
+        <v>140.74799999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>136.05500000000001</v>
+      </c>
+      <c r="D68">
+        <v>3059.4580000000001</v>
+      </c>
+      <c r="E68">
+        <v>1409.06</v>
+      </c>
+      <c r="F68">
+        <v>839.173</v>
+      </c>
+      <c r="G68">
+        <v>3463.777</v>
+      </c>
+      <c r="H68">
+        <v>7097.4560000000001</v>
+      </c>
+      <c r="I68">
+        <v>882.67399999999998</v>
+      </c>
+      <c r="J68">
+        <v>807.625</v>
+      </c>
+      <c r="K68">
+        <v>577.47699999999998</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2229.9450000000002</v>
+      </c>
+      <c r="O68">
+        <v>3415.8040000000001</v>
+      </c>
+      <c r="P68">
+        <v>1402.3430000000001</v>
+      </c>
+      <c r="Q68">
+        <v>11.766</v>
+      </c>
+      <c r="R68">
+        <v>42917</v>
+      </c>
+      <c r="S68">
+        <v>21000</v>
+      </c>
+      <c r="T68">
+        <v>3681.652</v>
+      </c>
+      <c r="U68">
+        <v>74.653999999999996</v>
+      </c>
+      <c r="V68">
+        <v>228.73</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-68.183999999999997</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-137.76599999999999</v>
+      </c>
+      <c r="AA68">
+        <v>136.05500000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>138.03100000000001</v>
+      </c>
+      <c r="D69">
+        <v>3161.0830000000001</v>
+      </c>
+      <c r="E69">
+        <v>1544.5820000000001</v>
+      </c>
+      <c r="F69">
+        <v>836.05399999999997</v>
+      </c>
+      <c r="G69">
+        <v>3782.529</v>
+      </c>
+      <c r="H69">
+        <v>7486.6610000000001</v>
+      </c>
+      <c r="I69">
+        <v>1029.1379999999999</v>
+      </c>
+      <c r="J69">
+        <v>907.59199999999998</v>
+      </c>
+      <c r="K69">
+        <v>631.86500000000001</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2437.1469999999999</v>
+      </c>
+      <c r="O69">
+        <v>3728.7040000000002</v>
+      </c>
+      <c r="P69">
+        <v>1556.704</v>
+      </c>
+      <c r="Q69">
+        <v>5.2249999999999996</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>22000</v>
+      </c>
+      <c r="T69">
+        <v>3757.9569999999999</v>
+      </c>
+      <c r="U69">
+        <v>79.879000000000005</v>
+      </c>
+      <c r="V69">
+        <v>131.36199999999999</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-109.2</v>
+      </c>
+      <c r="AA69">
+        <v>138.03100000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43099</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-8.5350000000000001</v>
+      </c>
+      <c r="D70">
+        <v>3318.0540000000001</v>
+      </c>
+      <c r="E70">
+        <v>1522.807</v>
+      </c>
+      <c r="F70">
+        <v>900.95600000000002</v>
+      </c>
+      <c r="G70">
+        <v>4086.02</v>
+      </c>
+      <c r="H70">
+        <v>7863.9949999999999</v>
+      </c>
+      <c r="I70">
+        <v>1153.0119999999999</v>
+      </c>
+      <c r="J70">
+        <v>902.66300000000001</v>
+      </c>
+      <c r="K70">
+        <v>741.65300000000002</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2828.9749999999999</v>
+      </c>
+      <c r="O70">
+        <v>4207.4470000000001</v>
+      </c>
+      <c r="P70">
+        <v>1666.068</v>
+      </c>
+      <c r="Q70">
+        <v>94.778999999999996</v>
+      </c>
+      <c r="R70">
+        <v>43099</v>
+      </c>
+      <c r="S70">
+        <v>22000</v>
+      </c>
+      <c r="T70">
+        <v>3656.5479999999998</v>
+      </c>
+      <c r="U70">
+        <v>174.65799999999999</v>
+      </c>
+      <c r="V70">
+        <v>238.01400000000001</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-128.619</v>
+      </c>
+      <c r="Y70">
+        <v>5.093</v>
+      </c>
+      <c r="Z70">
+        <v>4.1609999999999996</v>
+      </c>
+      <c r="AA70">
+        <v>-8.5350000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>140.21799999999999</v>
+      </c>
+      <c r="D71">
+        <v>2273.4499999999998</v>
+      </c>
+      <c r="E71">
+        <v>1576.39</v>
+      </c>
+      <c r="F71">
+        <v>719.12900000000002</v>
+      </c>
+      <c r="G71">
+        <v>4120.8050000000003</v>
+      </c>
+      <c r="H71">
+        <v>7914.8760000000002</v>
+      </c>
+      <c r="I71">
+        <v>1020.739</v>
+      </c>
+      <c r="J71">
+        <v>1000.515</v>
+      </c>
+      <c r="K71">
+        <v>954.14</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-7.3410000000000002</v>
+      </c>
+      <c r="N71">
+        <v>2856.2910000000002</v>
+      </c>
+      <c r="O71">
+        <v>4332.9430000000002</v>
+      </c>
+      <c r="P71">
+        <v>1968.819</v>
+      </c>
+      <c r="Q71">
+        <v>-77.754999999999995</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>22000</v>
+      </c>
+      <c r="T71">
+        <v>3581.933</v>
+      </c>
+      <c r="U71">
+        <v>99.234999999999999</v>
+      </c>
+      <c r="V71">
+        <v>-70.944000000000003</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>27.759</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-0.36399999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>140.21799999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>141.21199999999999</v>
+      </c>
+      <c r="D72">
+        <v>2316.0320000000002</v>
+      </c>
+      <c r="E72">
+        <v>1561.097</v>
+      </c>
+      <c r="F72">
+        <v>718.32799999999997</v>
+      </c>
+      <c r="G72">
+        <v>4061.94</v>
+      </c>
+      <c r="H72">
+        <v>7809.7860000000001</v>
+      </c>
+      <c r="I72">
+        <v>1117.925</v>
+      </c>
+      <c r="J72">
+        <v>985.38499999999999</v>
+      </c>
+      <c r="K72">
+        <v>1179.3340000000001</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>3152.922</v>
+      </c>
+      <c r="O72">
+        <v>4593.8909999999996</v>
+      </c>
+      <c r="P72">
+        <v>2177.194</v>
+      </c>
+      <c r="Q72">
+        <v>10.074</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>22000</v>
+      </c>
+      <c r="T72">
+        <v>3215.895</v>
+      </c>
+      <c r="U72">
+        <v>111.321</v>
+      </c>
+      <c r="V72">
+        <v>287.83</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-250.02699999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-0.98</v>
+      </c>
+      <c r="AA72">
+        <v>141.21199999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>121.47799999999999</v>
+      </c>
+      <c r="D73">
+        <v>2355.5650000000001</v>
+      </c>
+      <c r="E73">
+        <v>1627.64</v>
+      </c>
+      <c r="F73">
+        <v>722.35900000000004</v>
+      </c>
+      <c r="G73">
+        <v>4193.9520000000002</v>
+      </c>
+      <c r="H73">
+        <v>8390.31</v>
+      </c>
+      <c r="I73">
+        <v>1136.1199999999999</v>
+      </c>
+      <c r="J73">
+        <v>1000.3150000000001</v>
+      </c>
+      <c r="K73">
+        <v>1144.8810000000001</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>3229.7849999999999</v>
+      </c>
+      <c r="O73">
+        <v>4691.0919999999996</v>
+      </c>
+      <c r="P73">
+        <v>2157.6779999999999</v>
+      </c>
+      <c r="Q73">
+        <v>7.6150000000000002</v>
+      </c>
+      <c r="R73">
+        <v>43372</v>
+      </c>
+      <c r="S73">
+        <v>22000</v>
+      </c>
+      <c r="T73">
+        <v>3699.2179999999998</v>
+      </c>
+      <c r="U73">
+        <v>119.74</v>
+      </c>
+      <c r="V73">
+        <v>173.86799999999999</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-96.248000000000005</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-37.652000000000001</v>
+      </c>
+      <c r="AA73">
+        <v>121.47799999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43463</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>132.97300000000001</v>
+      </c>
+      <c r="D74">
+        <v>2472.556</v>
+      </c>
+      <c r="E74">
+        <v>1168.7760000000001</v>
+      </c>
+      <c r="F74">
+        <v>750.93100000000004</v>
+      </c>
+      <c r="G74">
+        <v>4175.22</v>
+      </c>
+      <c r="H74">
+        <v>8500.527</v>
+      </c>
+      <c r="I74">
+        <v>785.75599999999997</v>
+      </c>
+      <c r="J74">
+        <v>977.37599999999998</v>
+      </c>
+      <c r="K74">
+        <v>951.45799999999997</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3218.8270000000002</v>
+      </c>
+      <c r="O74">
+        <v>4646.5829999999996</v>
+      </c>
+      <c r="P74">
+        <v>1940.0820000000001</v>
+      </c>
+      <c r="Q74">
+        <v>-34.383000000000003</v>
+      </c>
+      <c r="R74">
+        <v>43463</v>
+      </c>
+      <c r="S74">
+        <v>18000</v>
+      </c>
+      <c r="T74">
+        <v>3853.944</v>
+      </c>
+      <c r="U74">
+        <v>56.884999999999998</v>
+      </c>
+      <c r="V74">
+        <v>293.952</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-285.26</v>
+      </c>
+      <c r="Y74">
+        <v>2.968</v>
+      </c>
+      <c r="Z74">
+        <v>-13.244</v>
+      </c>
+      <c r="AA74">
+        <v>132.97300000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>109.783</v>
+      </c>
+      <c r="D75">
+        <v>2360.268</v>
+      </c>
+      <c r="E75">
+        <v>1193.0540000000001</v>
+      </c>
+      <c r="F75">
+        <v>751.69</v>
+      </c>
+      <c r="G75">
+        <v>3109.1109999999999</v>
+      </c>
+      <c r="H75">
+        <v>7144.8639999999996</v>
+      </c>
+      <c r="I75">
+        <v>695.20399999999995</v>
+      </c>
+      <c r="J75">
+        <v>970.41800000000001</v>
+      </c>
+      <c r="K75">
+        <v>299.91399999999999</v>
+      </c>
+      <c r="L75">
+        <v>-652.11699999999996</v>
+      </c>
+      <c r="M75">
+        <v>-7.3760000000000003</v>
+      </c>
+      <c r="N75">
+        <v>1878.7760000000001</v>
+      </c>
+      <c r="O75">
+        <v>3443.491</v>
+      </c>
+      <c r="P75">
+        <v>1538.299</v>
+      </c>
+      <c r="Q75">
+        <v>31.23</v>
+      </c>
+      <c r="R75">
+        <v>43554</v>
+      </c>
+      <c r="S75">
+        <v>19000</v>
+      </c>
+      <c r="T75">
+        <v>3701.373</v>
+      </c>
+      <c r="U75">
+        <v>88.114999999999995</v>
+      </c>
+      <c r="V75">
+        <v>-33.738999999999997</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>632.12900000000002</v>
+      </c>
+      <c r="Y75">
+        <v>190.39</v>
+      </c>
+      <c r="Z75">
+        <v>-593.47299999999996</v>
+      </c>
+      <c r="AA75">
+        <v>109.783</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43645</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>114.532</v>
+      </c>
+      <c r="D76">
+        <v>2447.8270000000002</v>
+      </c>
+      <c r="E76">
+        <v>1203.925</v>
+      </c>
+      <c r="F76">
+        <v>767.43100000000004</v>
+      </c>
+      <c r="G76">
+        <v>3108.7139999999999</v>
+      </c>
+      <c r="H76">
+        <v>7112.3370000000004</v>
+      </c>
+      <c r="I76">
+        <v>745.62099999999998</v>
+      </c>
+      <c r="J76">
+        <v>970.02200000000005</v>
+      </c>
+      <c r="K76">
+        <v>242.78700000000001</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1825.277</v>
+      </c>
+      <c r="O76">
+        <v>3378.4090000000001</v>
+      </c>
+      <c r="P76">
+        <v>1471.598</v>
+      </c>
+      <c r="Q76">
+        <v>-3.1909999999999998</v>
+      </c>
+      <c r="R76">
+        <v>43645</v>
+      </c>
+      <c r="S76">
+        <v>19000</v>
+      </c>
+      <c r="T76">
+        <v>3733.9279999999999</v>
+      </c>
+      <c r="U76">
+        <v>84.924000000000007</v>
+      </c>
+      <c r="V76">
+        <v>163.23099999999999</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-121.569</v>
+      </c>
+      <c r="Y76">
+        <v>181.36500000000001</v>
+      </c>
+      <c r="Z76">
+        <v>-18.468</v>
+      </c>
+      <c r="AA76">
+        <v>114.532</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>140.55699999999999</v>
+      </c>
+      <c r="D77">
+        <v>2508.7669999999998</v>
+      </c>
+      <c r="E77">
+        <v>1278.9390000000001</v>
+      </c>
+      <c r="F77">
+        <v>761.16700000000003</v>
+      </c>
+      <c r="G77">
+        <v>3115.7420000000002</v>
+      </c>
+      <c r="H77">
+        <v>7097.0820000000003</v>
+      </c>
+      <c r="I77">
+        <v>854.65800000000002</v>
+      </c>
+      <c r="J77">
+        <v>869.11599999999999</v>
+      </c>
+      <c r="K77">
+        <v>107.84099999999999</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1908.692</v>
+      </c>
+      <c r="O77">
+        <v>3354.4470000000001</v>
+      </c>
+      <c r="P77">
+        <v>1339.1369999999999</v>
+      </c>
+      <c r="Q77">
+        <v>-9.6679999999999993</v>
+      </c>
+      <c r="R77">
+        <v>43736</v>
+      </c>
+      <c r="S77">
+        <v>19000</v>
+      </c>
+      <c r="T77">
+        <v>3742.6350000000002</v>
+      </c>
+      <c r="U77">
+        <v>75.256</v>
+      </c>
+      <c r="V77">
+        <v>232.035</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-189.78800000000001</v>
+      </c>
+      <c r="Y77">
+        <v>185.61799999999999</v>
+      </c>
+      <c r="Z77">
+        <v>-34.652000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>140.55699999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>329.86200000000002</v>
+      </c>
+      <c r="D78">
+        <v>2668.9409999999998</v>
+      </c>
+      <c r="E78">
+        <v>1246.2460000000001</v>
+      </c>
+      <c r="F78">
+        <v>810.59799999999996</v>
+      </c>
+      <c r="G78">
+        <v>3226.502</v>
+      </c>
+      <c r="H78">
+        <v>7151.1009999999997</v>
+      </c>
+      <c r="I78">
+        <v>880.26599999999996</v>
+      </c>
+      <c r="J78">
+        <v>619.25</v>
+      </c>
+      <c r="K78">
+        <v>23.975000000000001</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2038.3689999999999</v>
+      </c>
+      <c r="O78">
+        <v>3233.7060000000001</v>
+      </c>
+      <c r="P78">
+        <v>998.34799999999996</v>
+      </c>
+      <c r="Q78">
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="R78">
+        <v>43827</v>
+      </c>
+      <c r="S78">
+        <v>19000</v>
+      </c>
+      <c r="T78">
+        <v>3917.395</v>
+      </c>
+      <c r="U78">
+        <v>106.09699999999999</v>
+      </c>
+      <c r="V78">
+        <v>292.56</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-536.75199999999995</v>
+      </c>
+      <c r="Y78">
+        <v>179.92500000000001</v>
+      </c>
+      <c r="Z78">
+        <v>297.96499999999997</v>
+      </c>
+      <c r="AA78">
+        <v>329.86200000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>130.261</v>
+      </c>
+      <c r="D79">
+        <v>2428.8710000000001</v>
+      </c>
+      <c r="E79">
+        <v>1198.7429999999999</v>
+      </c>
+      <c r="F79">
+        <v>746.03899999999999</v>
+      </c>
+      <c r="G79">
+        <v>3619.105</v>
+      </c>
+      <c r="H79">
+        <v>7519.2</v>
+      </c>
+      <c r="I79">
+        <v>780.85299999999995</v>
+      </c>
+      <c r="J79">
+        <v>861.85299999999995</v>
+      </c>
+      <c r="K79">
+        <v>381.899</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-8.4779999999999998</v>
+      </c>
+      <c r="N79">
+        <v>2205.8339999999998</v>
+      </c>
+      <c r="O79">
+        <v>3641.2820000000002</v>
+      </c>
+      <c r="P79">
+        <v>1583.3579999999999</v>
+      </c>
+      <c r="Q79">
+        <v>511.27100000000002</v>
+      </c>
+      <c r="R79">
+        <v>43918</v>
+      </c>
+      <c r="S79">
+        <v>19000</v>
+      </c>
+      <c r="T79">
+        <v>3877.9180000000001</v>
+      </c>
+      <c r="U79">
+        <v>617.36800000000005</v>
+      </c>
+      <c r="V79">
+        <v>90.474999999999994</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>491.89</v>
+      </c>
+      <c r="Y79">
+        <v>166.94900000000001</v>
+      </c>
+      <c r="Z79">
+        <v>-37.947000000000003</v>
+      </c>
+      <c r="AA79">
+        <v>130.261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-10.797000000000001</v>
+      </c>
+      <c r="D80">
+        <v>1684.3989999999999</v>
+      </c>
+      <c r="E80">
+        <v>1101.201</v>
+      </c>
+      <c r="F80">
+        <v>454.29399999999998</v>
+      </c>
+      <c r="G80">
+        <v>3409.2060000000001</v>
+      </c>
+      <c r="H80">
+        <v>7318.125</v>
+      </c>
+      <c r="I80">
+        <v>734.95699999999999</v>
+      </c>
+      <c r="J80">
+        <v>512.07600000000002</v>
+      </c>
+      <c r="K80">
+        <v>503.178</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2307.241</v>
+      </c>
+      <c r="O80">
+        <v>3417.355</v>
+      </c>
+      <c r="P80">
+        <v>1353.6189999999999</v>
+      </c>
+      <c r="Q80">
+        <v>-321.25799999999998</v>
+      </c>
+      <c r="R80">
+        <v>44009</v>
+      </c>
+      <c r="S80">
+        <v>19000</v>
+      </c>
+      <c r="T80">
+        <v>3900.77</v>
+      </c>
+      <c r="U80">
+        <v>296.11</v>
+      </c>
+      <c r="V80">
+        <v>-90.745000000000005</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-230.41300000000001</v>
+      </c>
+      <c r="Y80">
+        <v>167.06800000000001</v>
+      </c>
+      <c r="Z80">
+        <v>0.222</v>
+      </c>
+      <c r="AA80">
+        <v>-10.797000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>141.697</v>
+      </c>
+      <c r="D81">
+        <v>2840.1460000000002</v>
+      </c>
+      <c r="E81">
+        <v>1407.6759999999999</v>
+      </c>
+      <c r="F81">
+        <v>754.29899999999998</v>
+      </c>
+      <c r="G81">
+        <v>3869.25</v>
+      </c>
+      <c r="H81">
+        <v>7809.8950000000004</v>
+      </c>
+      <c r="I81">
+        <v>1006.958</v>
+      </c>
+      <c r="J81">
+        <v>511.59300000000002</v>
+      </c>
+      <c r="K81">
+        <v>507.37200000000001</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2603.8069999999998</v>
+      </c>
+      <c r="O81">
+        <v>3722.9279999999999</v>
+      </c>
+      <c r="P81">
+        <v>1396.269</v>
+      </c>
+      <c r="Q81">
+        <v>237.38499999999999</v>
+      </c>
+      <c r="R81">
+        <v>44100</v>
+      </c>
+      <c r="S81">
+        <v>19000</v>
+      </c>
+      <c r="T81">
+        <v>4086.9670000000001</v>
+      </c>
+      <c r="U81">
+        <v>533.495</v>
+      </c>
+      <c r="V81">
+        <v>249.33199999999999</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>2.3079999999999998</v>
+      </c>
+      <c r="Y81">
+        <v>204.375</v>
+      </c>
+      <c r="Z81">
+        <v>-2.4830000000000001</v>
+      </c>
+      <c r="AA81">
+        <v>141.697</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>142.63300000000001</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>3165.7249999999999</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1424.787</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>859.71100000000001</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>3791.415</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>7772.5320000000002</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1005.655</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>512.23199999999997</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>73.366</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2283.1019999999999</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>3460.4479999999999</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1002.418</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-112.31</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44191</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>19000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>4312.0839999999998</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>421.185</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>349.84800000000001</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-450.97</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>242.268</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-5.9450000000000003</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>142.63300000000001</v>
       </c>
     </row>
